--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
@@ -1,57 +1,304 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E433FB99-4E9B-405D-8AFD-5E4AD43270E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>Segment 0</t>
+  </si>
+  <si>
+    <t>Segment 1</t>
+  </si>
+  <si>
+    <t>Segment 2</t>
+  </si>
+  <si>
+    <t>Segment 3</t>
+  </si>
+  <si>
+    <t>Segment 4</t>
+  </si>
+  <si>
+    <t>Segment 5</t>
+  </si>
+  <si>
+    <t>Segment 6</t>
+  </si>
+  <si>
+    <t>Segment 7</t>
+  </si>
+  <si>
+    <t>Segment 8</t>
+  </si>
+  <si>
+    <t>Segment 9</t>
+  </si>
+  <si>
+    <t>Segment 10</t>
+  </si>
+  <si>
+    <t>Segment 11</t>
+  </si>
+  <si>
+    <t>Segment 12</t>
+  </si>
+  <si>
+    <t>Segment 13</t>
+  </si>
+  <si>
+    <t>Segment 14</t>
+  </si>
+  <si>
+    <t>Segment 15</t>
+  </si>
+  <si>
+    <t>Segment 16</t>
+  </si>
+  <si>
+    <t>Segment 17</t>
+  </si>
+  <si>
+    <t>Segment 18</t>
+  </si>
+  <si>
+    <t>Segment 19</t>
+  </si>
+  <si>
+    <t>Segment 20</t>
+  </si>
+  <si>
+    <t>Segment 21</t>
+  </si>
+  <si>
+    <t>Segment 22</t>
+  </si>
+  <si>
+    <t>Segment 23</t>
+  </si>
+  <si>
+    <t>Segment 24</t>
+  </si>
+  <si>
+    <t>Segment 25</t>
+  </si>
+  <si>
+    <t>Segment 26</t>
+  </si>
+  <si>
+    <t>Segment 27</t>
+  </si>
+  <si>
+    <t>Segment 28</t>
+  </si>
+  <si>
+    <t>Segment 29</t>
+  </si>
+  <si>
+    <t>Segment 30</t>
+  </si>
+  <si>
+    <t>Segment 31</t>
+  </si>
+  <si>
+    <t>Segment 32</t>
+  </si>
+  <si>
+    <t>Segment 33</t>
+  </si>
+  <si>
+    <t>Segment 34</t>
+  </si>
+  <si>
+    <t>Segment 35</t>
+  </si>
+  <si>
+    <t>Segment 36</t>
+  </si>
+  <si>
+    <t>Segment 37</t>
+  </si>
+  <si>
+    <t>Segment 38</t>
+  </si>
+  <si>
+    <t>Segment 39</t>
+  </si>
+  <si>
+    <t>Segment 40</t>
+  </si>
+  <si>
+    <t>Segment 41</t>
+  </si>
+  <si>
+    <t>Segment 42</t>
+  </si>
+  <si>
+    <t>Segment 43</t>
+  </si>
+  <si>
+    <t>Segment 44</t>
+  </si>
+  <si>
+    <t>Segment 45</t>
+  </si>
+  <si>
+    <t>Segment 46</t>
+  </si>
+  <si>
+    <t>Segment 47</t>
+  </si>
+  <si>
+    <t>Segment 48</t>
+  </si>
+  <si>
+    <t>Segment 49</t>
+  </si>
+  <si>
+    <t>Segment 50</t>
+  </si>
+  <si>
+    <t>Segment 51</t>
+  </si>
+  <si>
+    <t>Segment 52</t>
+  </si>
+  <si>
+    <t>Segment 53</t>
+  </si>
+  <si>
+    <t>Segment 54</t>
+  </si>
+  <si>
+    <t>Segment 55</t>
+  </si>
+  <si>
+    <t>Segment 56</t>
+  </si>
+  <si>
+    <t>Segment 57</t>
+  </si>
+  <si>
+    <t>Segment 58</t>
+  </si>
+  <si>
+    <t>Segment 59</t>
+  </si>
+  <si>
+    <t>Segment 60</t>
+  </si>
+  <si>
+    <t>Segment 61</t>
+  </si>
+  <si>
+    <t>Segment 62</t>
+  </si>
+  <si>
+    <t>Segment 63</t>
+  </si>
+  <si>
+    <t>Segment 64</t>
+  </si>
+  <si>
+    <t>Segment 65</t>
+  </si>
+  <si>
+    <t>Segment 66</t>
+  </si>
+  <si>
+    <t>Segment 67</t>
+  </si>
+  <si>
+    <t>Segment 68</t>
+  </si>
+  <si>
+    <t>Segment 69</t>
+  </si>
+  <si>
+    <t>Repas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="FFCAECC7"/>
+        <bgColor rgb="FFCAECC7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A0A0A0"/>
-        <bgColor rgb="00A0A0A0"/>
+        <fgColor rgb="FFC7ECCA"/>
+        <bgColor rgb="FFCDCDCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFCCCDCD"/>
+        <bgColor rgb="FFEBBE45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45BEEB"/>
+        <bgColor rgb="FFCDCDCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCDCD"/>
+        <bgColor rgb="FFCAECC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45BEEB"/>
+        <bgColor rgb="FFEBBE45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45BEEB"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,88 +306,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -460,228 +667,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Feuil1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B29:BT29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="29">
-      <c r="B29" s="1" t="n">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>11</v>
+      </c>
+      <c r="I29" s="3">
+        <v>11</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>14</v>
+      </c>
+      <c r="O29" s="3">
+        <v>14</v>
+      </c>
+      <c r="P29" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>6</v>
+      </c>
+      <c r="R29" s="4">
+        <v>10</v>
+      </c>
+      <c r="S29" s="5">
+        <v>10</v>
+      </c>
+      <c r="T29" s="2">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>8</v>
+      </c>
+      <c r="V29" s="4">
+        <v>12</v>
+      </c>
+      <c r="W29" s="3">
+        <v>12</v>
+      </c>
+      <c r="X29" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>19</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>19</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>15</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>11</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>11</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>19</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>16</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>16</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>17</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>17</v>
+      </c>
+      <c r="AV29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="AW29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>16</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>16</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA29" s="5">
+        <v>6</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>6</v>
+      </c>
+      <c r="BC29" s="3">
+        <v>6</v>
+      </c>
+      <c r="BD29" s="4">
+        <v>19</v>
+      </c>
+      <c r="BE29" s="3">
+        <v>19</v>
+      </c>
+      <c r="BF29" s="4">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="n">
+      <c r="BG29" s="3">
+        <v>10</v>
+      </c>
+      <c r="BH29" s="4">
+        <v>11</v>
+      </c>
+      <c r="BI29" s="3">
+        <v>11</v>
+      </c>
+      <c r="BJ29" s="4">
+        <v>25</v>
+      </c>
+      <c r="BK29" s="3">
+        <v>25</v>
+      </c>
+      <c r="BL29" s="4">
+        <v>5</v>
+      </c>
+      <c r="BM29" s="3">
+        <v>5</v>
+      </c>
+      <c r="BN29" s="4">
         <v>9</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="3" t="n">
+      <c r="BO29" s="3">
+        <v>9</v>
+      </c>
+      <c r="BP29" s="4">
+        <v>8</v>
+      </c>
+      <c r="BQ29" s="3">
+        <v>8</v>
+      </c>
+      <c r="BR29" s="6">
         <v>14</v>
       </c>
-      <c r="O29" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="S29" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="T29" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U29" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V29" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="W29" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="X29" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z29" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF29" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH29" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI29" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK29" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN29" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO29" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP29" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT29" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV29" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW29" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX29" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ29" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA29" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB29" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC29" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD29" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="BE29" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BF29" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG29" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="BH29" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI29" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="BJ29" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="BK29" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="BL29" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BM29" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="BN29" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO29" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="BP29" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BQ29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BR29" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="BT29" s="3" t="n">
+      <c r="BS29" s="7">
         <v>13</v>
       </c>
     </row>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E433FB99-4E9B-405D-8AFD-5E4AD43270E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C729420-640F-46CB-8C4A-C8FA0F88BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t>Segment 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Segment 1</t>
   </si>
@@ -233,6 +230,141 @@
   </si>
   <si>
     <t>Repas</t>
+  </si>
+  <si>
+    <t>Segment 70</t>
+  </si>
+  <si>
+    <t>Segment 71</t>
+  </si>
+  <si>
+    <t>Segment 72</t>
+  </si>
+  <si>
+    <t>Segment 73</t>
+  </si>
+  <si>
+    <t>Segment 74</t>
+  </si>
+  <si>
+    <t>Segment 75</t>
+  </si>
+  <si>
+    <t>Segment 76</t>
+  </si>
+  <si>
+    <t>Segment 77</t>
+  </si>
+  <si>
+    <t>Segment 78</t>
+  </si>
+  <si>
+    <t>Segment 79</t>
+  </si>
+  <si>
+    <t>Segment 80</t>
+  </si>
+  <si>
+    <t>Segment 81</t>
+  </si>
+  <si>
+    <t>Segment 82</t>
+  </si>
+  <si>
+    <t>Segment 83</t>
+  </si>
+  <si>
+    <t>Segment 84</t>
+  </si>
+  <si>
+    <t>Segment 85</t>
+  </si>
+  <si>
+    <t>Segment 86</t>
+  </si>
+  <si>
+    <t>Segment 87</t>
+  </si>
+  <si>
+    <t>Segment 88</t>
+  </si>
+  <si>
+    <t>Segment 89</t>
+  </si>
+  <si>
+    <t>Segment 90</t>
+  </si>
+  <si>
+    <t>Segment 91</t>
+  </si>
+  <si>
+    <t>Segment 92</t>
+  </si>
+  <si>
+    <t>Segment 93</t>
+  </si>
+  <si>
+    <t>Segment 94</t>
+  </si>
+  <si>
+    <t>Segment 95</t>
+  </si>
+  <si>
+    <t>Segment 96</t>
+  </si>
+  <si>
+    <t>Segment 97</t>
+  </si>
+  <si>
+    <t>Segment 98</t>
+  </si>
+  <si>
+    <t>Segment 99</t>
+  </si>
+  <si>
+    <t>Segment 100</t>
+  </si>
+  <si>
+    <t>Segment 101</t>
+  </si>
+  <si>
+    <t>Segment 102</t>
+  </si>
+  <si>
+    <t>Segment 103</t>
+  </si>
+  <si>
+    <t>Segment 104</t>
+  </si>
+  <si>
+    <t>Segment 105</t>
+  </si>
+  <si>
+    <t>Segment 106</t>
+  </si>
+  <si>
+    <t>Segment 107</t>
+  </si>
+  <si>
+    <t>Segment 108</t>
+  </si>
+  <si>
+    <t>Segment 109</t>
+  </si>
+  <si>
+    <t>Segment 110</t>
+  </si>
+  <si>
+    <t>Segment 111</t>
+  </si>
+  <si>
+    <t>Segment 112</t>
+  </si>
+  <si>
+    <t>Segment 113</t>
+  </si>
+  <si>
+    <t>Segment 114</t>
   </si>
 </sst>
 </file>
@@ -248,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,48 +389,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCAECC7"/>
-        <bgColor rgb="FFCAECC7"/>
+        <fgColor rgb="FFEBBE45"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7ECCA"/>
-        <bgColor rgb="FFCDCDCC"/>
+        <fgColor rgb="FFCDCDCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCDCD"/>
-        <bgColor rgb="FFEBBE45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45BEEB"/>
-        <bgColor rgb="FFCDCDCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCDCD"/>
-        <bgColor rgb="FFCAECC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45BEEB"/>
-        <bgColor rgb="FFEBBE45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45BEEB"/>
+        <fgColor rgb="FFCAECC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -321,19 +429,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,17 +806,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:DL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -889,222 +1026,4999 @@
         <v>68</v>
       </c>
       <c r="BS1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17.183999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.814999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.021000000000015</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.6819999999999879</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.0229999999999961</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.2230000000000132</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8.6929999999999836</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.4909999999999854</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.8620000000000232</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.8410000000000082</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10.510999999999967</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.60700000000002774</v>
+      </c>
+      <c r="O2" s="2">
+        <v>16.575999999999965</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3.8410000000000082</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.86099999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2.4259999999999877</v>
+      </c>
+      <c r="S2" s="2">
+        <v>3.6400000000000432</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4.2439999999999714</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2.6290000000000191</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1.4139999999999873</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.617999999999995</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2.021000000000015</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>7.27800000000002</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4.0419999999999732</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3.4360000000000355</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1.81899999999996</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6.6709999999999923</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0.80799999999999272</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>2.4260000000000446</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>9.9049999999999727</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>20.013000000000034</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>2.0219999999999914</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>5.0529999999999973</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>20.214999999999975</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>3.0320000000000391</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>4.0419999999999732</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>3.6399999999999864</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>2.6270000000000095</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>4.2459999999999809</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>39.836000000000013</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>3.63900000000001</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>1.6169999999999618</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>2.6280000000000427</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>1.617999999999995</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>4.4470000000000027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.4689999999999372</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.8300000000000409</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.2570000000000618</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.0669999999998936</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.6410000000000764</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.20100000000002183</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.0449999999999591</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.0779999999999745</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36.80600000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.8199999999999363</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.2130000000000791</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.20199999999999818</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.2250000000000227</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4.65199999999993</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3.4370000000000118</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5.4600000000000364</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4.65199999999993</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5.8640000000000327</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2.6269999999999527</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5.2560000000000855</v>
+      </c>
+      <c r="W3" s="2">
+        <v>8.6929999999999836</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.60599999999999454</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>17.789999999999964</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1.82000000000005</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2.2229999999999563</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>4.6499999999999773</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.2119999999999891</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.20300000000008822</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3.63799999999992</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>7.6820000000000164</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>6.4690000000000509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.4579999999999984</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.2350000000000136</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0109999999999957</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4259999999999877</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.953000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.8619999999999948</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.4370000000000118</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7.4799999999999898</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.4260000000000161</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.8299999999999841</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.8190000000000168</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.6389999999999816</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.6380000000000052</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4.0440000000000111</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.0110000000000241</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.6069999999999709</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3.8410000000000082</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.2230000000000132</v>
+      </c>
+      <c r="U5" s="2">
+        <v>3.0319999999999823</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4.2450000000000045</v>
+      </c>
+      <c r="W5" s="2">
+        <v>2.2239999999999895</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.20199999999999818</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>9.299000000000035</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>2.4259999999999877</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5.0529999999999973</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>2.021000000000015</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.6069999999999709</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2.6279999999999859</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>3.2339999999999804</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.80900000000002592</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1.2119999999999891</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.60599999999999454</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1.0110000000000241</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1.2129999999999654</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>15.161000000000001</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>2.4259999999999877</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>1.617999999999995</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0.20199999999999818</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>10.106999999999971</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1.8190000000000168</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>2.8299999999999841</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>2.0219999999999914</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0.40300000000002001</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>3.6399999999999864</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>3.4360000000000355</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>2.0209999999999582</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0.40499999999997272</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>1.0099999999999909</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>1.4159999999999968</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>1.8190000000000168</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>6.4689999999999941</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>6.8729999999999905</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0.80900000000002592</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>32.949999999999989</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>2.6279999999999859</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>2.4260000000000446</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>0.60599999999999454</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>1.81899999999996</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>2.8310000000000173</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>1.4149999999999636</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>5.6610000000000014</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>0.60600000000005139</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>1.4149999999999636</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0.80799999999999272</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>3.2350000000000136</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>2.4270000000000209</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>2.4269999999999641</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>5.4600000000000364</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0.80899999999996908</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>1.8210000000000264</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>1.6170000000000186</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>2.2249999999999659</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>8.8980000000000246</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>4.2469999999999573</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>2.021000000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.4259999999999309</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0320000000000391</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.0330000000000155</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.8419999999999845</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9.9099999999999682</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.8530000000000655</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.4379999999999882</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.8310000000000173</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.41599999999994</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.2470000000000709</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10.919999999999959</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.23599999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.8310000000000173</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.0449999999999591</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.6170000000000755</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.20299999999997453</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.0099999999999909</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="U6" s="2">
+        <v>3.6399999999999864</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5.05600000000004</v>
+      </c>
+      <c r="W6" s="2">
+        <v>7.4819999999999709</v>
+      </c>
+      <c r="X6" s="1">
+        <v>6.47199999999998</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.0110000000000809</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2.2239999999999327</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8.4920000000000755</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>6.4689999999999372</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1.6170000000000755</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>2.0209999999999582</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>22.440000000000055</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>6.0639999999999645</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>15.970000000000027</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>3.4370000000000118</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>9.0960000000000036</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>5.05499999999995</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>6.2649999999999864</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>6.4690000000000509</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1.6179999999999382</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>0.80799999999999272</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>6.6710000000000491</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>4.4470000000000027</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>14.55600000000004</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>7.4789999999999281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0550000000000637</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.319999999999936</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.6700000000000728</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.8309999999999036</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.8300000000000409</v>
+      </c>
+      <c r="G7" s="2">
+        <v>17.793999999999983</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.4490000000000691</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.4379999999999882</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.5389999999999873</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.9769999999999754</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.82000000000005</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.0389999999999873</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.5240000000000009</v>
+      </c>
+      <c r="O7" s="2">
+        <v>22.035999999999945</v>
+      </c>
+      <c r="P7" s="1">
+        <v>7.3790000000000191</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>16.879999999999995</v>
+      </c>
+      <c r="R7" s="3">
+        <v>4.2450000000000045</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.4149999999999636</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2.7290000000000418</v>
+      </c>
+      <c r="U7" s="2">
+        <v>19.006999999999948</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4.2470000000000709</v>
+      </c>
+      <c r="W7" s="2">
+        <v>29.826999999999998</v>
+      </c>
+      <c r="X7" s="3">
+        <v>14.154999999999973</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>6.2680000000000291</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4.0430000000000064</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2.2239999999999327</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0.20199999999999818</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1.2130000000000791</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2.2229999999999563</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>20.418000000000006</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>4.8509999999999991</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>18.194000000000074</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2.2239999999999327</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>25.673000000000002</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0.20199999999999818</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>10.309999999999945</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1.6169999999999618</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>33.768000000000029</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>4.8530000000000655</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1.2129999999999654</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>2.0219999999999345</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>9.9050000000002001</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1.8199999999999363</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>6.0639999999998508</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>3.8410000000001219</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>13.746000000000095</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>2.8299999999999272</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>6.6720000000000255</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0.40300000000002001</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>23.449999999999818</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>3.4360000000001492</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>1.8199999999999363</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>1.8199999999999363</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>9.0960000000000036</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>3.0320000000001528</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>11.319999999999936</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>3.6389999999998963</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>2.0220000000001619</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>1.2129999999999654</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0.60599999999999454</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>15.365999999999985</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>3.8430000000000746</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>21.833999999999833</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>2.4260000000001583</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>1.4139999999999873</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>3.0329999999999018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.7309999999999945</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.0320000000000107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.9819999999999993</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.5989999999999895</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0820000000000221</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.9489999999999839</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.9500000000000171</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5.414999999999992</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.9480000000000075</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.9490000000000123</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6.7139999999999986</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.5159999999999911</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2.382000000000005</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="U8" s="2">
+        <v>22.305999999999983</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.21700000000004138</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>5.1979999999999791</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>3.4639999999999986</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1.7320000000000277</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1.9490000000000123</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>4.9810000000000514</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>8.4459999999999695</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>2.5980000000000132</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>6.0640000000000214</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>27.069000000000017</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>2.5989999999999895</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>3.8979999999999677</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>5.1970000000000027</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>17.109000000000037</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>1.7330000000000041</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>2.382000000000005</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>4.1139999999999759</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>5.8470000000000368</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>8.228999999999985</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>7.3629999999999995</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>5.6299999999999955</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>6.9300000000000068</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>2.1650000000000205</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>1.7330000000000041</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0.86700000000001864</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>1.5160000000000196</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>1.5160000000000196</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>4.1139999999999759</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>4.7649999999999864</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>7.5780000000000314</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>4.7649999999999864</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>3.6809999999999832</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>9.7450000000000045</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>2.382000000000005</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>4.1160000000000423</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>0.86499999999995225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.2290000000000418</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.8669999999999618</v>
+      </c>
+      <c r="I9" s="2">
+        <v>36.59800000000007</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.2480000000000473</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.0830000000000837</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3.8979999999999109</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.59800000000007</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4.1150000000000091</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="U9" s="2">
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3.4640000000000555</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>14.508999999999901</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3.4660000000000082</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1.7320000000000846</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3.4649999999999181</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>13.966999999999985</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>2.1650000000000773</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.8669999999999618</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>6.9300000000000637</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>11.476999999999975</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>1.7320000000000846</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>11.476999999999975</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>8.8790000000000191</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>3.4650000000000318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.394999999999982</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.5979999999999563</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.2990000000000919</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.68100000000004</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.3819999999999482</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.86700000000007549</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.5169999999999391</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.9480000000000928</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.2479999999999336</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6.9300000000000637</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.4639999999999418</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2.3820000000000618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.4449999999999932</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.9310000000000116</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.9489999999999839</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.3629999999999995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.3320000000000221</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.6619999999999777</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.0960000000000036</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.43400000000002592</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="O11" s="2">
+        <v>11.260999999999967</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1.5150000000000432</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3.0319999999999823</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2.382000000000005</v>
+      </c>
+      <c r="U11" s="2">
+        <v>6.2800000000000296</v>
+      </c>
+      <c r="V11" s="1">
+        <v>6.9300000000000068</v>
+      </c>
+      <c r="W11" s="2">
+        <v>9.0960000000000036</v>
+      </c>
+      <c r="X11" s="1">
+        <v>4.5469999999999686</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>6.7139999999999986</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3.0310000000000059</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>2.382000000000005</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0.86700000000001864</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>2.1639999999999873</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>6.0649999999999977</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>4.76400000000001</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>15.591000000000008</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>8.228999999999985</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>2.5989999999999895</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1.7320000000000277</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>3.8969999999999914</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0.86700000000001864</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>6.0629999999999882</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>4.5470000000000255</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>2.5980000000000132</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>8.2300000000000182</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>5.4139999999999873</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>1.9490000000000123</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>5.1970000000000027</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>8.4459999999999695</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>9.9629999999999654</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>5.8470000000000368</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>0.64999999999997726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.8969999999999345</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.1150000000000091</v>
+      </c>
+      <c r="E12" s="2">
+        <v>19.490000000000009</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.3819999999999482</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.1660000000000537</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="K12" s="2">
+        <v>8.4460000000000264</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.4640000000000555</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.9499999999999318</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.7320000000000846</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.6510000000000673</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>2.59800000000007</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>4.5490000000000919</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>6.7119999999999891</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>2.8159999999999172</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>2.7180000000000746</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>1.0720000000000027</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>6.4959999999999809</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>12.994000000000028</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>7.3629999999999427</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>2.8150000000000546</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>2.3829999999999245</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>6.4970000000000709</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>10.6099999999999</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>6.9289999999999736</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>2.8159999999999172</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>4.3300000000000409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.52800000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.2479999999999336</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.7129999999999654</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8.6620000000000346</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3.2480000000000473</v>
+      </c>
+      <c r="L13" s="3">
+        <v>14.076000000000022</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3.2479999999999336</v>
+      </c>
+      <c r="N13" s="3">
+        <v>4.76400000000001</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5.6310000000000855</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3.6809999999999263</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.1650000000000773</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1.5169999999999391</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="V13" s="1">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="W13" s="2">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1.9479999999999791</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>6.2800000000000864</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1.5169999999999391</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>3.6820000000000164</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>11.909999999999968</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>4.3310000000000173</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>1.7330000000000609</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>8.2289999999999281</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>4.5470000000000255</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0.86600000000009913</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>3.6809999999999263</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>6.7140000000000555</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>13.858999999999924</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1.7330000000000609</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>12.775999999999954</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>6.4959999999999809</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>1.7330000000000609</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>2.3819999999999482</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>2.1650000000000773</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>9.3129999999998745</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>3.68100000000004</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>3.2480000000000473</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>8.8789999999999054</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>1.2990000000002055</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>1.515999999999849</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>3.0320000000001528</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>11.260999999999967</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>1.0830000000000837</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>1.0820000000001073</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>1.0829999999998563</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>8.0130000000001473</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>26.63799999999992</v>
+      </c>
+      <c r="BV13" s="3">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>1.515999999999849</v>
+      </c>
+      <c r="BX13" s="3">
+        <v>0.6490000000001146</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>1.08400000000006</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>1.0819999999998799</v>
+      </c>
+      <c r="CB13" s="3">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>5.6299999999998818</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>5.6300000000001091</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>30.211000000000013</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>9.5289999999999964</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>1.515999999999849</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>8.0140000000001237</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>6.2799999999999727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.8160000000000025</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7330000000000041</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11.044000000000011</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.7329999999999757</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5.4140000000000157</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7.5800000000000125</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.164999999999992</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.0829999999999984</v>
+      </c>
+      <c r="M14" s="2">
+        <v>22.307000000000016</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="O14" s="2">
+        <v>21.656000000000006</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3.6809999999999832</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.299000000000035</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4.1140000000000327</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.8669999999999618</v>
+      </c>
+      <c r="W14" s="2">
+        <v>7.3620000000000232</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.8669999999999618</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>2.5980000000000132</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>4.76400000000001</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3.6819999999999595</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>24.470000000000027</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>3.6809999999999832</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>4.7649999999999864</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.86600000000004229</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>11.69399999999996</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1.5160000000000196</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>9.0960000000000036</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>21.437999999999988</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>1.7330000000000041</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>5.4139999999999873</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>3.0310000000000059</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>9.7450000000000045</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>4.1139999999999759</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0.86700000000001864</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>8.228999999999985</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1.7320000000000277</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>11.045000000000016</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.4130000000000109</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12.775999999999954</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.8470000000000937</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9.3120000000000118</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8.44500000000005</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5.4139999999999873</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2.3819999999999482</v>
+      </c>
+      <c r="V15" s="1">
+        <v>7.7950000000000728</v>
+      </c>
+      <c r="W15" s="2">
+        <v>4.7649999999999864</v>
+      </c>
+      <c r="X15" s="1">
+        <v>8.6619999999999209</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.7320000000000846</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>8.8790000000000191</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.41699999999991633</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1.6410000000000764</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>4.3299999999999272</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1.2990000000000919</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>17.756999999999948</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>11.044000000000096</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>6.0639999999999645</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>6.7130000000000791</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>2.5979999999999563</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>1.08400000000006</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>4.9799999999999045</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>3.6820000000000164</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>3.4640000000000555</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>6.92999999999995</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>3.8980000000000246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C29" s="3">
-        <v>15</v>
-      </c>
-      <c r="D29" s="4">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2">
-        <v>9</v>
-      </c>
-      <c r="G29" s="5">
-        <v>9</v>
-      </c>
-      <c r="H29" s="2">
-        <v>11</v>
-      </c>
-      <c r="I29" s="3">
-        <v>11</v>
-      </c>
-      <c r="J29" s="4">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3">
-        <v>2</v>
-      </c>
-      <c r="L29" s="4">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>3</v>
-      </c>
-      <c r="N29" s="4">
-        <v>14</v>
-      </c>
-      <c r="O29" s="3">
-        <v>14</v>
-      </c>
-      <c r="P29" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>6</v>
-      </c>
-      <c r="R29" s="4">
-        <v>10</v>
-      </c>
-      <c r="S29" s="5">
-        <v>10</v>
-      </c>
-      <c r="T29" s="2">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>8</v>
-      </c>
-      <c r="V29" s="4">
-        <v>12</v>
-      </c>
-      <c r="W29" s="3">
-        <v>12</v>
-      </c>
-      <c r="X29" s="4">
-        <v>6</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="4">
+      <c r="B16" s="1">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.2290000000000418</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15.37399999999991</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.8150000000000546</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.1140000000000327</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7.3629999999999427</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14.29200000000003</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10.177000000000021</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8.8790000000000191</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6.4969999999999573</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.2990000000000919</v>
+      </c>
+      <c r="O16" s="2">
+        <v>6.9289999999999736</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.76400000000001</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.9499999999999318</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="S16" s="2">
+        <v>6.7130000000000791</v>
+      </c>
+      <c r="T16" s="1">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="U16" s="2">
+        <v>10.827999999999975</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5.6299999999999955</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>5.84800000000007</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>3.4639999999999418</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>3.0320000000000391</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>10.826999999999998</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>4.1140000000000327</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>7.1460000000000719</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>2.5979999999999563</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>12.343999999999937</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>4.76400000000001</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>1.0830000000000837</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>12.992999999999938</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>7.7949999999999591</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>2.1660000000000537</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>5.6300000000001091</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>5.1979999999998654</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>13.426000000000158</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>5.4139999999999873</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>0.64999999999986358</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>1.0820000000001073</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>8.4459999999999127</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>6.9300000000000637</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>3.8970000000001619</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>13.209999999999809</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>6.2810000000001764</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>17.759000000000015</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>3.4639999999999418</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>1.5170000000000528</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>7.1459999999999582</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>1.0829999999998563</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>6.7129999999999654</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>8.4460000000001401</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>19.923999999999978</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>0.41699999999991633</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>13.118999999999915</v>
+      </c>
+      <c r="BX16" s="3">
+        <v>8.4460000000001401</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>2.5979999999999563</v>
+      </c>
+      <c r="BZ16" s="3">
+        <v>3.4659999999998945</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>16.025000000000091</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>11.261999999999944</v>
+      </c>
+      <c r="CC16" s="2">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>10.829000000000178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.1980000000000075</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.6810000000000116</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13.644000000000005</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.164999999999992</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.4139999999999873</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.0649999999999977</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.2480000000000189</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.0319999999999823</v>
+      </c>
+      <c r="K17" s="2">
+        <v>11.478000000000009</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4.5470000000000255</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="O17" s="2">
+        <v>7.5790000000000077</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.65000000000003411</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2.1650000000000205</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.3819999999999482</v>
+      </c>
+      <c r="U17" s="2">
+        <v>4.3320000000000505</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="W17" s="2">
+        <v>6.0629999999999882</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>7.5800000000000409</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>4.7649999999999864</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>3.6809999999999832</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>4.1140000000000327</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.8669999999999618</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>12.343999999999994</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1.0820000000000505</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>8.228999999999985</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1.7330000000000041</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>4.9799999999999613</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>3.0330000000000155</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>2.1650000000000205</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>7.1469999999999914</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>3.0310000000000059</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>1.5169999999999959</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>4.7639999999999532</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>3.68100000000004</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>6.7129999999999654</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>4.1140000000000327</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>7.5790000000000077</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>10.394999999999982</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>1.7309999999999945</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>1.0840000000000032</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>6.9290000000000305</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>1.7330000000000041</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>1.5149999999999864</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>2.5989999999999895</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>1.299000000000035</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>5.1970000000000027</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>2.8149999999999977</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>12.343999999999994</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>0.65000000000003411</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>7.1449999999999818</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>2.5989999999999895</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>3.6809999999999832</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>7.3629999999999995</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>5.1980000000000359</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>2.8149999999999977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.3310000000000173</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9.3129999999999882</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.3810000000000855</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.4660000000000082</v>
+      </c>
+      <c r="I18" s="2">
+        <v>64.100999999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4.3310000000000173</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.4960000000000946</v>
+      </c>
+      <c r="O18" s="2">
+        <v>13.426999999999907</v>
+      </c>
+      <c r="P18" s="1">
+        <v>6.7130000000000791</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="R18" s="1">
+        <v>7.7959999999999354</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3.5740000000000691</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5.8460000000000036</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3.4649999999999181</v>
+      </c>
+      <c r="V18" s="1">
+        <v>9.3120000000000118</v>
+      </c>
+      <c r="W18" s="2">
+        <v>12.343000000000075</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>3.2480000000000473</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>6.4959999999999809</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>2.8150000000000546</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>6.7129999999999654</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>6.7140000000000555</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>7.5789999999999509</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>3.8980000000000246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.84699999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.1660000000000537</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.68100000000004</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3.8980000000000246</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3.4649999999999181</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>4.3300000000000409</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.8669999999999618</v>
+      </c>
+      <c r="S19" s="2">
+        <v>16.673000000000002</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="V19" s="1">
+        <v>3.4660000000000082</v>
+      </c>
+      <c r="W19" s="2">
+        <v>2.5970000000000937</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1.5169999999999391</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>13.643000000000029</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>12.992999999999938</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>5.84800000000007</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>11.043000000000006</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>3.2479999999999336</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>10.177999999999997</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1.0830000000000837</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>2.8149999999999409</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>2.1660000000000537</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>4.5480000000000018</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>6.92999999999995</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>5.8470000000000937</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>3.0320000000000391</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>34.648000000000025</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>4.5470000000000255</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>3.4650000000000318</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0.86700000000007549</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>10.61099999999999</v>
+      </c>
+      <c r="BF19" s="3">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>1.9480000000000928</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>9.3119999999998981</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>2.8150000000000546</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>2.1649999999999636</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>2.5990000000001601</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>2.8150000000000546</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>1.5150000000001</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="BT19" s="3">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>0.6490000000001146</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>3.0319999999999254</v>
+      </c>
+      <c r="BX19" s="1">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>1.5150000000001</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="CA19" s="2">
+        <v>1.5169999999998254</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>1.7319999999999709</v>
+      </c>
+      <c r="CC19" s="2">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="CD19" s="3">
+        <v>3.8979999999999109</v>
+      </c>
+      <c r="CE19" s="2">
+        <v>1.7330000000001746</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>7.1459999999999582</v>
+      </c>
+      <c r="CG19" s="2">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>1.515999999999849</v>
+      </c>
+      <c r="CI19" s="2">
+        <v>11.262000000000171</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>3.6809999999998126</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>1.0820000000001073</v>
+      </c>
+      <c r="CM19" s="2">
+        <v>4.9809999999999945</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>1.515999999999849</v>
+      </c>
+      <c r="CO19" s="2">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="CQ19" s="2">
+        <v>7.1469999999999345</v>
+      </c>
+      <c r="CR19" s="1">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="CS19" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>9.52800000000002</v>
+      </c>
+      <c r="CU19" s="2">
+        <v>8.8789999999999054</v>
+      </c>
+      <c r="CV19" s="1">
+        <v>1.08400000000006</v>
+      </c>
+      <c r="CW19" s="2">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="CX19" s="3">
+        <v>1.9489999999998417</v>
+      </c>
+      <c r="CY19" s="2">
+        <v>1.0830000000000837</v>
+      </c>
+      <c r="CZ19" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="DA19" s="2">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="DB19" s="1">
+        <v>1.0830000000000837</v>
+      </c>
+      <c r="DC19" s="2">
+        <v>3.68100000000004</v>
+      </c>
+      <c r="DD19" s="1">
+        <v>3.140999999999849</v>
+      </c>
+      <c r="DE19" s="2">
+        <v>7.5800000000001546</v>
+      </c>
+      <c r="DF19" s="1">
+        <v>5.4130000000000109</v>
+      </c>
+      <c r="DG19" s="2">
+        <v>7.5799999999999272</v>
+      </c>
+      <c r="DH19" s="1">
+        <v>4.1150000000000091</v>
+      </c>
+      <c r="DI19" s="2">
+        <v>3.4649999999999181</v>
+      </c>
+      <c r="DJ19" s="1">
+        <v>7.3630000000000564</v>
+      </c>
+      <c r="DK19" s="2">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="DL19" s="1">
+        <v>13.211000000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="AA29" s="5">
-        <v>19</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>15</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>15</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>11</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>11</v>
-      </c>
-      <c r="AH29" s="2">
+      <c r="B20" s="1">
+        <v>4.0470000000000255</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.6870000000000118</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.2469999999999573</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.41700000000003</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.2620000000000005</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.7019999999999982</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3.4399999999999977</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7.2860000000000014</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.8340000000000032</v>
+      </c>
+      <c r="L20" s="1">
+        <v>14.572000000000003</v>
+      </c>
+      <c r="M20" s="2">
+        <v>7.6899999999999409</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.6430000000000291</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3.2390000000000327</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2.83299999999997</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.0120000000000573</v>
+      </c>
+      <c r="S20" s="2">
+        <v>6.4759999999999991</v>
+      </c>
+      <c r="T20" s="1">
+        <v>7.6899999999999409</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1.2140000000000555</v>
+      </c>
+      <c r="V20" s="1">
+        <v>4.6559999999999491</v>
+      </c>
+      <c r="W20" s="2">
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="X20" s="1">
+        <v>5.0600000000000591</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>2.83299999999997</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>6.4759999999999991</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>7.6899999999999409</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0.60700000000008458</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>2.0249999999999773</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>6.6789999999999736</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>13.961999999999989</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>6.6760000000000446</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>1.0120000000000573</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>12.339999999999918</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>1.8210000000000264</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>8.4959999999999809</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>3.6410000000000764</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>3.4389999999999645</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>7.2830000000000155</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>1.6190000000000282</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>4.2469999999999573</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>3.2369999999999663</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>5.8670000000000755</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>2.4269999999999072</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>3.0350000000000819</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>4.8539999999999281</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>1.6190000000000282</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>7.0800000000000409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.6989999999999554</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12.137000000000057</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.6649999999999636</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.6410000000000764</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.8779999999999291</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12.947000000000003</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.2140000000000555</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18.004999999999995</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4.0459999999999354</v>
+      </c>
+      <c r="L21" s="1">
+        <v>9.9120000000000346</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5.0589999999999691</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3.6420000000000528</v>
+      </c>
+      <c r="O21" s="2">
+        <v>12.547000000000025</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5.4639999999999418</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>9.3089999999999691</v>
+      </c>
+      <c r="R21" s="1">
+        <v>9.1040000000000418</v>
+      </c>
+      <c r="S21" s="2">
+        <v>4.2469999999999573</v>
+      </c>
+      <c r="T21" s="1">
+        <v>13.149000000000001</v>
+      </c>
+      <c r="U21" s="2">
+        <v>4.2490000000000236</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4.65300000000002</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="X21" s="1">
+        <v>5.8659999999999854</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>4.4510000000000218</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>6.47300000000007</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>6.6759999999999309</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>3.8440000000000509</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>6.6749999999999545</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>6.8780000000000427</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>2.0230000000000246</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>3.2369999999999663</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>15.375</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>1.41700000000003</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>3.6440000000000055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7.4849999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3.6410000000000764</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.8669999999999618</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.4160000000000537</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.6869999999998981</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.23700000000008</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6.8779999999999291</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8.6980000000000928</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6.2709999999999582</v>
+      </c>
+      <c r="K22" s="2">
+        <v>6.06899999999996</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.2130000000001928</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.41599999999994</v>
+      </c>
+      <c r="O22" s="2">
+        <v>4.2490000000000236</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6.4729999999999563</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.2590000000000146</v>
+      </c>
+      <c r="R22" s="3">
+        <v>4.65300000000002</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2.6289999999999054</v>
+      </c>
+      <c r="U22" s="2">
+        <v>9.1050000000000182</v>
+      </c>
+      <c r="V22" s="3">
+        <v>6.8810000000000855</v>
+      </c>
+      <c r="W22" s="2">
+        <v>3.6420000000000528</v>
+      </c>
+      <c r="X22" s="1">
+        <v>19.421000000000049</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1.2139999999999418</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>4.0460000000000491</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>2.8309999999999036</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2.0239999999998872</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>5.2590000000000146</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>4.0460000000000491</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1.6190000000001419</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>1.0099999999999909</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>8.4959999999998672</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>13.95900000000006</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>8.4970000000000709</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>1.0099999999999909</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>2.4279999999998836</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>4.65300000000002</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>7.6880000000001019</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>2.0219999999999345</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>3.6410000000000764</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>6.6749999999999545</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>4.4510000000000218</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>3.6410000000000764</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>5.8669999999999618</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>6.4729999999999563</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>5.6639999999999873</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>1.6189999999999145</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>7.484000000000151</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>3.2369999999998527</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>0.60700000000019827</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>6.4729999999999563</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>3.0339999999998781</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>4.0460000000000491</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>4.4510000000000218</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>8.4960000000000946</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>0.6069999999999709</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>6.6749999999999545</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>0.60799999999994725</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>1.8199999999999363</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>3.6420000000000528</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="BL22" s="3">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>8.0920000000000982</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>6.06899999999996</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>8.2930000000001201</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>10.115000000000009</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>8.3949999999999818</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>10.519999999999982</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>4.5509999999999309</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>3.4390000000000782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.2490000000000236</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4169999999999732</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.8320000000000505</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.2129999999999654</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3.4399999999999977</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.0120000000000005</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.6290000000000191</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5.8689999999999714</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.0360000000000014</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.60700000000002774</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2.8340000000000032</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3.8449999999999704</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4.0480000000000018</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9.1080000000000041</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="S23" s="2">
+        <v>2.4289999999999736</v>
+      </c>
+      <c r="T23" s="1">
+        <v>5.8680000000000518</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1.4180000000000064</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="W23" s="2">
+        <v>3.0359999999999445</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1.0120000000000573</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>4.8559999999999945</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>2.4289999999999736</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>3.0360000000000582</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3.8460000000000036</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>5.4639999999999418</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1.8210000000000264</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>2.0240000000000009</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0.6069999999999709</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>1.0120000000000573</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>2.0229999999999109</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>2.0250000000000909</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>3.0349999999999682</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>3.6430000000000291</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>3.2379999999999427</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>5.66700000000003</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>3.4399999999999409</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>5.66700000000003</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>1.6190000000000282</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>4.2509999999999764</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>2.0230000000000246</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>3.0359999999999445</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>2.4279999999999973</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>2.0250000000000909</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>7.4850000000000136</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>7.6869999999998981</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>7.0810000000000173</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>1.0110000000000809</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>6.06899999999996</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>9.7110000000000127</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>2.6290000000000191</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>5.6639999999999873</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>6.0690000000000737</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>6.2709999999999582</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>10.115000000000009</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>1.0109999999999673</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>1.8210000000000264</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>9.7100000000000364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.8310000000000173</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.2149999999999181</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.20199999999999818</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.4270000000000209</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.0230000000000246</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.6190000000000282</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.2249999999999091</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.4380000000001019</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.6649999999999636</v>
+      </c>
+      <c r="K24" s="2">
+        <v>7.2820000000000391</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4.0469999999999118</v>
+      </c>
+      <c r="M24" s="2">
+        <v>6.2710000000000719</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7.4839999999999236</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5.4619999999999891</v>
+      </c>
+      <c r="P24" s="1">
+        <v>5.0580000000001064</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4.2479999999999336</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1.6180000000000518</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="T24" s="1">
+        <v>3.4389999999999645</v>
+      </c>
+      <c r="U24" s="2">
+        <v>2.0230000000000246</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4.4500000000000455</v>
+      </c>
+      <c r="W24" s="2">
+        <v>2.6309999999999718</v>
+      </c>
+      <c r="X24" s="1">
+        <v>3.23599999999999</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>5.8670000000000755</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3.4389999999999645</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>5.8659999999999854</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0.20299999999997453</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>1.6180000000000518</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>2.4270000000000209</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>7.6899999999999409</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>7.2860000000000582</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>3.4409999999999172</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>3.4390000000000782</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>7.0839999999999463</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>10.317000000000007</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>7.8899999999999864</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>1.2140000000000555</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0.40399999999999636</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>1.8209999999999127</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>6.0690000000000737</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>7.6870000000000118</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>7.0799999999999272</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>8.0919999999999845</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>1.0110000000000809</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>1.8210000000000264</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>13.149000000000001</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>2.0229999999999109</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>2.4279999999999973</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>2.8319999999999936</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>2.6299999999999955</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>3.4390000000000782</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>4.0459999999999354</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>4.4500000000000455</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>1.2139999999999418</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>1.82000000000005</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>2.2259999999999991</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>5.4619999999999891</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>4.6539999999999964</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>4.0470000000000255</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>2.2259999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.4389999999999645</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.0570000000000164</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.8429999999999609</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.8210000000000264</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11.127000000000066</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.6289999999999054</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8.4970000000000709</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4.2479999999999336</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.2140000000000555</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.2129999999999654</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3.0339999999999918</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.6190000000000282</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.2139999999999418</v>
+      </c>
+      <c r="O25" s="2">
+        <v>7.2820000000001528</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4.2489999999997963</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2.6290000000001328</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3.4390000000000782</v>
+      </c>
+      <c r="S25" s="2">
+        <v>5.6649999999999636</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1.6179999999999382</v>
+      </c>
+      <c r="U25" s="2">
+        <v>5.6630000000000109</v>
+      </c>
+      <c r="V25" s="1">
+        <v>3.4400000000000546</v>
+      </c>
+      <c r="W25" s="2">
+        <v>10.521999999999935</v>
+      </c>
+      <c r="X25" s="1">
+        <v>6.6779999999998836</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>7.4860000000001037</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1.2129999999999654</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.20300000000020191</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>2.8309999999999036</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>6.2709999999999582</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>3.23700000000008</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>4.65300000000002</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>7.8889999999998963</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>14.36200000000008</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>3.0349999999998545</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>6.8780000000001564</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>8.293999999999869</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>1.8210000000001401</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>5.2590000000000146</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>8.9009999999998399</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>2.8320000000001073</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>1.41599999999994</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>1.0119999999999436</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>1.2130000000001928</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>3.6419999999998254</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>4.65300000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.3829999999999814</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.382000000000005</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9.964999999999975</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.7660000000000196</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.5169999999999959</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.5160000000000196</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4.9830000000000041</v>
+      </c>
+      <c r="M26" s="2">
+        <v>7.1490000000000009</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.86599999999998545</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7.1480000000000246</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2.3839999999999009</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="S26" s="2">
+        <v>17.113999999999919</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3.4660000000000082</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1.3010000000000446</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="W26" s="2">
+        <v>11.048000000000002</v>
+      </c>
+      <c r="X26" s="1">
+        <v>5.1989999999999554</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>6.2830000000000155</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>2.3829999999999245</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>5.1990000000000691</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>19.92999999999995</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>3.4660000000000082</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>8.4490000000000691</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>13.646999999999935</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>6.0670000000000073</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>2.1650000000000773</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>3.24899999999991</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>3.0330000000000155</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>1.9499999999999318</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>1.7320000000000846</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>3.6829999999999927</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>3.24899999999991</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>8.6650000000000773</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.86599999999998545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.4669999999999845</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.6829999999999927</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.86700000000007549</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10.182000000000016</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6.4980000000000473</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="K27" s="2">
+        <v>4.3330000000000837</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4.5489999999999782</v>
+      </c>
+      <c r="O27" s="2">
+        <v>9.5320000000000391</v>
+      </c>
+      <c r="P27" s="1">
+        <v>9.74899999999991</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>7.3640000000000327</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="S27" s="2">
+        <v>4.9820000000000846</v>
+      </c>
+      <c r="T27" s="1">
+        <v>9.9660000000000082</v>
+      </c>
+      <c r="U27" s="2">
+        <v>9.9649999999999181</v>
+      </c>
+      <c r="V27" s="1">
+        <v>6.7150000000000318</v>
+      </c>
+      <c r="W27" s="2">
+        <v>16.248000000000047</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>7.5819999999999936</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>4.9830000000000609</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0.2159999999998945</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>1.5170000000000528</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>7.3650000000000091</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>9.74899999999991</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>4.7660000000000764</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>4.1150000000000091</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>17.979999999999905</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>0.6510000000000673</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>12.34699999999998</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>6.9319999999999027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20.579999999999927</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="I28" s="5">
+        <v>30.870999999999981</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5.6330000000000382</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.21600000000012187</v>
+      </c>
+      <c r="M28" s="5">
+        <v>22.530999999999949</v>
+      </c>
+      <c r="N28" s="4">
+        <v>5.6330000000000382</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2.3819999999998345</v>
+      </c>
+      <c r="P28" s="4">
+        <v>7.1490000000001146</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>21.011999999999944</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0.43399999999996908</v>
+      </c>
+      <c r="S28" s="5">
+        <v>13.430000000000064</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="U28" s="5">
+        <v>7.5820000000001073</v>
+      </c>
+      <c r="V28" s="4">
+        <v>3.4649999999999181</v>
+      </c>
+      <c r="W28" s="5">
+        <v>9.5319999999999254</v>
+      </c>
+      <c r="X28" s="6">
+        <v>5.8490000000001601</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>14.513999999999896</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>4.1160000000002128</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>3.4659999999998945</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>2.5989999999999327</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>10.398000000000138</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1.54099999999994</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>1.1669999999999163</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>0.21600000000012187</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>6.2819999999999254</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>1.0839999999998327</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>18.195000000000164</v>
+      </c>
+      <c r="AN28" s="6">
+        <v>3.6820000000000164</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>1.5169999999998254</v>
+      </c>
+      <c r="AP28" s="6">
+        <v>1.5160000000000764</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>4.9819999999999709</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>5.4160000000001673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:116" s="10" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3.6820000000000164</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="E30" s="8">
+        <v>12.565000000000055</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4.7649999999999864</v>
+      </c>
+      <c r="G30" s="8">
+        <v>6.9320000000000164</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1.08299999999997</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5.41599999999994</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.21600000000000819</v>
+      </c>
+      <c r="K30" s="8">
+        <v>6.9329999999999927</v>
+      </c>
+      <c r="L30" s="7">
+        <v>4.3319999999999936</v>
+      </c>
+      <c r="M30" s="8">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.86700000000007549</v>
+      </c>
+      <c r="O30" s="8">
+        <v>9.5319999999999254</v>
+      </c>
+      <c r="P30" s="7">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>9.0979999999999563</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1.5170000000000528</v>
+      </c>
+      <c r="T30" s="7">
+        <v>1.5169999999999391</v>
+      </c>
+      <c r="U30" s="8">
+        <v>11.482000000000085</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="X30" s="7">
+        <v>2.8170000000000073</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>9.74899999999991</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>2.5990000000000464</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>7.3650000000000091</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>3.0330000000000155</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>0.43399999999996908</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>2.3820000000000618</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>4.1169999999999618</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>6.0660000000000309</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="AI30" s="8">
+        <v>8.4490000000000691</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>1.0819999999999936</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>1.5169999999999391</v>
+      </c>
+      <c r="AL30" s="7">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="AM30" s="8">
+        <v>1.9489999999999554</v>
+      </c>
+      <c r="AN30" s="9">
+        <v>1.5170000000000528</v>
+      </c>
+      <c r="AO30" s="8">
+        <v>9.3149999999999409</v>
+      </c>
+      <c r="AP30" s="7">
+        <v>3.6820000000000164</v>
+      </c>
+      <c r="AQ30" s="8">
+        <v>3.4669999999999845</v>
+      </c>
+      <c r="AR30" s="7">
+        <v>3.2490000000000236</v>
+      </c>
+      <c r="AS30" s="8">
+        <v>3.6820000000000164</v>
+      </c>
+      <c r="AT30" s="7">
+        <v>5.6330000000000382</v>
+      </c>
+      <c r="AU30" s="8">
+        <v>25.777999999999906</v>
+      </c>
+      <c r="AV30" s="7">
+        <v>2.1660000000000537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:116" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="AI29" s="3">
-        <v>30</v>
-      </c>
-      <c r="AJ29" s="4">
-        <v>4</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AL29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>19</v>
-      </c>
-      <c r="AP29" s="4">
-        <v>16</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>16</v>
-      </c>
-      <c r="AR29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>17</v>
-      </c>
-      <c r="AU29" s="3">
-        <v>17</v>
-      </c>
-      <c r="AV29" s="4">
-        <v>5</v>
-      </c>
-      <c r="AW29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AX29" s="4">
-        <v>16</v>
-      </c>
-      <c r="AY29" s="3">
-        <v>16</v>
-      </c>
-      <c r="AZ29" s="4">
-        <v>6</v>
-      </c>
-      <c r="BA29" s="5">
-        <v>6</v>
-      </c>
-      <c r="BB29" s="2">
-        <v>6</v>
-      </c>
-      <c r="BC29" s="3">
-        <v>6</v>
-      </c>
-      <c r="BD29" s="4">
-        <v>19</v>
-      </c>
-      <c r="BE29" s="3">
-        <v>19</v>
-      </c>
-      <c r="BF29" s="4">
-        <v>10</v>
-      </c>
-      <c r="BG29" s="3">
-        <v>10</v>
-      </c>
-      <c r="BH29" s="4">
-        <v>11</v>
-      </c>
-      <c r="BI29" s="3">
-        <v>11</v>
-      </c>
-      <c r="BJ29" s="4">
-        <v>25</v>
-      </c>
-      <c r="BK29" s="3">
-        <v>25</v>
-      </c>
-      <c r="BL29" s="4">
-        <v>5</v>
-      </c>
-      <c r="BM29" s="3">
-        <v>5</v>
-      </c>
-      <c r="BN29" s="4">
-        <v>9</v>
-      </c>
-      <c r="BO29" s="3">
-        <v>9</v>
-      </c>
-      <c r="BP29" s="4">
-        <v>8</v>
-      </c>
-      <c r="BQ29" s="3">
-        <v>8</v>
-      </c>
-      <c r="BR29" s="6">
-        <v>14</v>
-      </c>
-      <c r="BS29" s="7">
-        <v>13</v>
+      <c r="B31" s="1">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.4490000000000691</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6.7149999999999181</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.0650000000000546</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.5159999999999627</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="I31" s="2">
+        <v>15.380999999999972</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.7339999999999236</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.9490000000000691</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2.16599999999994</v>
+      </c>
+      <c r="O31" s="2">
+        <v>10.506999999999948</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1.08400000000006</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>22.313000000000102</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3.4659999999998945</v>
+      </c>
+      <c r="S31" s="2">
+        <v>7.5820000000001073</v>
+      </c>
+      <c r="T31" s="1">
+        <v>5.8489999999999327</v>
+      </c>
+      <c r="U31" s="2">
+        <v>4.3320000000001073</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.21699999999987085</v>
+      </c>
+      <c r="W31" s="2">
+        <v>3.0330000000001291</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>16.896999999999935</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>4.3309999999999036</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>13.215000000000146</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>1.7329999999999472</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>2.8160000000000309</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>4.5489999999999782</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>5.2000000000000455</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>1.2989999999999782</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>2.3830000000000382</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>9.5309999999999491</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>0.43399999999996908</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>9.0980000000001837</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>0.43399999999996908</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>4.7649999999998727</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>3.6829999999999927</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>14.080000000000155</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>4.1159999999999854</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>1.9739999999999327</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>1.3830000000000382</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>10.182000000000016</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>5.8479999999999563</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>1.0830000000000837</v>
       </c>
     </row>
   </sheetData>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C729420-640F-46CB-8C4A-C8FA0F88BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3548B26D-E6A4-47ED-B62F-064884BDC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4597" yWindow="3472" windowWidth="16200" windowHeight="8296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,7 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +808,7 @@
   <dimension ref="A1:DL31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2475,186 +2474,198 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>8.4449999999999932</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.9310000000000116</v>
+        <v>1.9489999999999839</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.5150000000000148</v>
       </c>
       <c r="D11" s="1">
-        <v>1.9489999999999839</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.3629999999999995</v>
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5.6310000000000002</v>
       </c>
       <c r="F11" s="1">
         <v>4.3320000000000221</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>8.6619999999999777</v>
       </c>
       <c r="H11" s="1">
         <v>1.5149999999999864</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>9.0960000000000036</v>
       </c>
       <c r="J11" s="3">
         <v>0.43400000000002592</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>3.8980000000000246</v>
       </c>
       <c r="L11" s="1">
         <v>2.1649999999999636</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>3.2490000000000236</v>
       </c>
       <c r="N11" s="1">
         <v>2.8149999999999977</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>11.260999999999967</v>
       </c>
       <c r="P11" s="3">
         <v>1.5150000000000432</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3">
         <v>1.9499999999999886</v>
       </c>
       <c r="R11" s="1">
         <v>5.84699999999998</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="3">
         <v>3.0319999999999823</v>
       </c>
       <c r="T11" s="1">
         <v>2.382000000000005</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="3">
         <v>6.2800000000000296</v>
       </c>
       <c r="V11" s="1">
         <v>6.9300000000000068</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="3">
         <v>9.0960000000000036</v>
       </c>
       <c r="X11" s="1">
         <v>4.5469999999999686</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="3">
         <v>6.7139999999999986</v>
       </c>
       <c r="Z11" s="1">
         <v>3.0310000000000059</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="3">
         <v>2.382000000000005</v>
       </c>
       <c r="AB11" s="3">
         <v>0.86700000000001864</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="3">
         <v>2.1639999999999873</v>
       </c>
       <c r="AD11" s="1">
         <v>6.0649999999999977</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="3">
         <v>4.76400000000001</v>
       </c>
       <c r="AF11" s="3">
         <v>4.9809999999999945</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11" s="3">
         <v>15.591000000000008</v>
       </c>
       <c r="AH11" s="3">
         <v>4.3319999999999936</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="3">
         <v>2.1659999999999968</v>
       </c>
       <c r="AJ11" s="1">
         <v>8.228999999999985</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11" s="3">
         <v>2.5989999999999895</v>
       </c>
       <c r="AL11" s="1">
         <v>1.7320000000000277</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11" s="3">
         <v>3.8969999999999914</v>
       </c>
       <c r="AN11" s="1">
         <v>0.86700000000001864</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AO11" s="3">
         <v>1.08299999999997</v>
       </c>
       <c r="AP11" s="3">
         <v>1.3000000000000114</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11" s="3">
         <v>6.0629999999999882</v>
       </c>
       <c r="AR11" s="1">
         <v>4.5470000000000255</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11" s="3">
         <v>2.5980000000000132</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AT11" s="3">
         <v>5.84699999999998</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11" s="3">
         <v>8.2300000000000182</v>
       </c>
       <c r="AV11" s="3">
         <v>5.4139999999999873</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11" s="3">
         <v>2.1649999999999636</v>
       </c>
       <c r="AX11" s="1">
         <v>1.9490000000000123</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AY11" s="3">
         <v>5.1970000000000027</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="AZ11" s="3">
         <v>3.4650000000000318</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BA11" s="3">
         <v>8.4459999999999695</v>
       </c>
       <c r="BB11" s="3">
         <v>0.21600000000000819</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BC11" s="3">
         <v>1.3000000000000114</v>
       </c>
       <c r="BD11" s="1">
         <v>0.64900000000000091</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BE11" s="3">
         <v>9.9629999999999654</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BF11" s="3">
         <v>0.64900000000000091</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="BG11" s="3">
         <v>2.1659999999999968</v>
       </c>
       <c r="BH11" s="3">
         <v>0.64900000000000091</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BI11" s="3">
         <v>5.8470000000000368</v>
       </c>
       <c r="BJ11" s="1">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>2.1659999999999968</v>
+      </c>
+      <c r="BL11" s="3">
+        <v>0.64900000000000091</v>
+      </c>
+      <c r="BM11" s="3">
+        <v>5.8470000000000368</v>
+      </c>
+      <c r="BN11" s="1">
         <v>0.64999999999997726</v>
       </c>
     </row>
@@ -5728,7 +5739,6 @@
         <v>5.4160000000001673</v>
       </c>
     </row>
-    <row r="29" spans="1:116" s="10" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3548B26D-E6A4-47ED-B62F-064884BDC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B46E2-9762-45FA-91BD-8135CF19D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4597" yWindow="3472" windowWidth="16200" windowHeight="8296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Segment 1</t>
   </si>
@@ -365,6 +378,231 @@
   </si>
   <si>
     <t>Segment 114</t>
+  </si>
+  <si>
+    <t>Segment 115</t>
+  </si>
+  <si>
+    <t>Segment 116</t>
+  </si>
+  <si>
+    <t>Segment 117</t>
+  </si>
+  <si>
+    <t>Segment 118</t>
+  </si>
+  <si>
+    <t>Segment 119</t>
+  </si>
+  <si>
+    <t>Segment 120</t>
+  </si>
+  <si>
+    <t>Segment 121</t>
+  </si>
+  <si>
+    <t>Segment 122</t>
+  </si>
+  <si>
+    <t>Segment 123</t>
+  </si>
+  <si>
+    <t>Segment 124</t>
+  </si>
+  <si>
+    <t>Segment 125</t>
+  </si>
+  <si>
+    <t>Segment 126</t>
+  </si>
+  <si>
+    <t>Segment 127</t>
+  </si>
+  <si>
+    <t>Segment 128</t>
+  </si>
+  <si>
+    <t>Segment 129</t>
+  </si>
+  <si>
+    <t>Segment 130</t>
+  </si>
+  <si>
+    <t>Segment 131</t>
+  </si>
+  <si>
+    <t>Segment 132</t>
+  </si>
+  <si>
+    <t>Segment 133</t>
+  </si>
+  <si>
+    <t>Segment 134</t>
+  </si>
+  <si>
+    <t>Segment 135</t>
+  </si>
+  <si>
+    <t>Segment 136</t>
+  </si>
+  <si>
+    <t>Segment 137</t>
+  </si>
+  <si>
+    <t>Segment 138</t>
+  </si>
+  <si>
+    <t>Segment 139</t>
+  </si>
+  <si>
+    <t>Segment 140</t>
+  </si>
+  <si>
+    <t>Segment 141</t>
+  </si>
+  <si>
+    <t>Segment 142</t>
+  </si>
+  <si>
+    <t>Segment 143</t>
+  </si>
+  <si>
+    <t>Segment 144</t>
+  </si>
+  <si>
+    <t>Segment 145</t>
+  </si>
+  <si>
+    <t>Segment 146</t>
+  </si>
+  <si>
+    <t>Segment 147</t>
+  </si>
+  <si>
+    <t>Segment 148</t>
+  </si>
+  <si>
+    <t>Segment 149</t>
+  </si>
+  <si>
+    <t>Segment 150</t>
+  </si>
+  <si>
+    <t>Segment 151</t>
+  </si>
+  <si>
+    <t>Segment 152</t>
+  </si>
+  <si>
+    <t>Segment 153</t>
+  </si>
+  <si>
+    <t>Segment 154</t>
+  </si>
+  <si>
+    <t>Segment 155</t>
+  </si>
+  <si>
+    <t>Segment 156</t>
+  </si>
+  <si>
+    <t>Segment 157</t>
+  </si>
+  <si>
+    <t>Segment 158</t>
+  </si>
+  <si>
+    <t>Segment 159</t>
+  </si>
+  <si>
+    <t>Segment 160</t>
+  </si>
+  <si>
+    <t>Segment 161</t>
+  </si>
+  <si>
+    <t>Segment 162</t>
+  </si>
+  <si>
+    <t>Segment 163</t>
+  </si>
+  <si>
+    <t>Segment 164</t>
+  </si>
+  <si>
+    <t>Segment 165</t>
+  </si>
+  <si>
+    <t>Segment 166</t>
+  </si>
+  <si>
+    <t>Segment 167</t>
+  </si>
+  <si>
+    <t>Segment 168</t>
+  </si>
+  <si>
+    <t>Segment 169</t>
+  </si>
+  <si>
+    <t>Segment 170</t>
+  </si>
+  <si>
+    <t>Segment 171</t>
+  </si>
+  <si>
+    <t>Segment 172</t>
+  </si>
+  <si>
+    <t>Segment 173</t>
+  </si>
+  <si>
+    <t>Segment 174</t>
+  </si>
+  <si>
+    <t>Segment 175</t>
+  </si>
+  <si>
+    <t>Segment 176</t>
+  </si>
+  <si>
+    <t>Segment 177</t>
+  </si>
+  <si>
+    <t>Segment 178</t>
+  </si>
+  <si>
+    <t>Segment 179</t>
+  </si>
+  <si>
+    <t>Segment 180</t>
+  </si>
+  <si>
+    <t>Segment 181</t>
+  </si>
+  <si>
+    <t>Segment 182</t>
+  </si>
+  <si>
+    <t>Segment 183</t>
+  </si>
+  <si>
+    <t>Segment 184</t>
+  </si>
+  <si>
+    <t>Segment 185</t>
+  </si>
+  <si>
+    <t>Segment 186</t>
+  </si>
+  <si>
+    <t>Segment 187</t>
+  </si>
+  <si>
+    <t>Segment 188</t>
+  </si>
+  <si>
+    <t>Segment 189</t>
   </si>
 </sst>
 </file>
@@ -406,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -429,47 +667,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,15 +1011,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:DL31"/>
+  <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1049,374 +1255,596 @@
         <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DA1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DB1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DC1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DD1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DE1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DF1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DG1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DH1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DI1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DJ1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DK1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DL1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>17.183999999999997</v>
+        <v>17.2</v>
       </c>
       <c r="C2" s="2">
-        <v>10.814999999999998</v>
+        <v>10.8</v>
       </c>
       <c r="D2" s="1">
-        <v>2.021000000000015</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>7.6819999999999879</v>
+        <v>7.7</v>
       </c>
       <c r="F2" s="1">
-        <v>2.0229999999999961</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>2.2230000000000132</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>8.6929999999999836</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I2" s="2">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="J2" s="1">
-        <v>8.4909999999999854</v>
+        <v>8.5</v>
       </c>
       <c r="K2" s="2">
-        <v>5.8620000000000232</v>
+        <v>5.9</v>
       </c>
       <c r="L2" s="1">
-        <v>3.8410000000000082</v>
+        <v>3.8</v>
       </c>
       <c r="M2" s="2">
-        <v>10.510999999999967</v>
+        <v>10.5</v>
       </c>
       <c r="N2" s="1">
-        <v>0.60700000000002774</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="2">
-        <v>16.575999999999965</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P2" s="1">
-        <v>3.8410000000000082</v>
+        <v>3.8</v>
       </c>
       <c r="Q2" s="2">
-        <v>5.86099999999999</v>
+        <v>5.9</v>
       </c>
       <c r="R2" s="1">
-        <v>2.4259999999999877</v>
+        <v>2.4</v>
       </c>
       <c r="S2" s="2">
-        <v>3.6400000000000432</v>
+        <v>3.6</v>
       </c>
       <c r="T2" s="1">
-        <v>4.2439999999999714</v>
+        <v>4.2</v>
       </c>
       <c r="U2" s="2">
-        <v>2.6290000000000191</v>
+        <v>2.6</v>
       </c>
       <c r="V2" s="3">
-        <v>1.4139999999999873</v>
+        <v>1.4</v>
       </c>
       <c r="W2" s="2">
-        <v>1.617999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="X2" s="1">
-        <v>2.021000000000015</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="2">
-        <v>7.27800000000002</v>
+        <v>7.3</v>
       </c>
       <c r="Z2" s="1">
-        <v>4.0419999999999732</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="2">
-        <v>1.8199999999999932</v>
+        <v>1.8</v>
       </c>
       <c r="AB2" s="1">
-        <v>3.4360000000000355</v>
+        <v>3.4</v>
       </c>
       <c r="AC2" s="2">
-        <v>1.81899999999996</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" s="1">
-        <v>6.6709999999999923</v>
+        <v>6.7</v>
       </c>
       <c r="AE2" s="2">
-        <v>4.0430000000000064</v>
+        <v>4</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.80799999999999272</v>
+        <v>0.8</v>
       </c>
       <c r="AG2" s="2">
-        <v>2.4260000000000446</v>
+        <v>2.4</v>
       </c>
       <c r="AH2" s="1">
-        <v>9.9049999999999727</v>
+        <v>9.9</v>
       </c>
       <c r="AI2" s="2">
-        <v>20.013000000000034</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2.0219999999999914</v>
+        <v>2</v>
       </c>
       <c r="AK2" s="2">
-        <v>5.0529999999999973</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>20.214999999999975</v>
+        <v>20.2</v>
       </c>
       <c r="AM2" s="2">
-        <v>1.8199999999999932</v>
+        <v>1.8</v>
       </c>
       <c r="AN2" s="1">
-        <v>3.0320000000000391</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="2">
-        <v>4.0419999999999732</v>
+        <v>4</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.6399999999999864</v>
+        <v>3.6</v>
       </c>
       <c r="AQ2" s="2">
-        <v>2.6270000000000095</v>
+        <v>2.6</v>
       </c>
       <c r="AR2" s="3">
-        <v>4.2459999999999809</v>
+        <v>4.2</v>
       </c>
       <c r="AS2" s="2">
-        <v>1.6170000000000186</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0.40399999999999636</v>
+        <v>1.6</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>0.4</v>
       </c>
       <c r="AU2" s="2">
-        <v>39.836000000000013</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>3.63900000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AW2" s="2">
-        <v>1.6169999999999618</v>
+        <v>1.6</v>
       </c>
       <c r="AX2" s="1">
-        <v>2.6280000000000427</v>
+        <v>2.6</v>
       </c>
       <c r="AY2" s="2">
-        <v>1.617999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.4470000000000027</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6.4689999999999372</v>
+        <v>6.5</v>
       </c>
       <c r="C3" s="2">
-        <v>4.0430000000000064</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>2.8300000000000409</v>
+        <v>2.8</v>
       </c>
       <c r="E3" s="2">
-        <v>5.2570000000000618</v>
+        <v>5.3</v>
       </c>
       <c r="F3" s="1">
-        <v>6.0669999999998936</v>
+        <v>6.1</v>
       </c>
       <c r="G3" s="2">
-        <v>3.6410000000000764</v>
+        <v>3.6</v>
       </c>
       <c r="H3" s="3">
-        <v>0.20100000000002183</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="2">
-        <v>4.0449999999999591</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>7.0779999999999745</v>
+        <v>7.1</v>
       </c>
       <c r="K3" s="2">
-        <v>36.80600000000004</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="L3" s="1">
-        <v>1.8199999999999363</v>
+        <v>1.8</v>
       </c>
       <c r="M3" s="2">
-        <v>1.2130000000000791</v>
+        <v>1.2</v>
       </c>
       <c r="N3" s="3">
-        <v>0.20199999999999818</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="2">
-        <v>2.2250000000000227</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P3" s="1">
-        <v>4.65199999999993</v>
+        <v>4.7</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.4370000000000118</v>
+        <v>3.4</v>
       </c>
       <c r="R3" s="1">
-        <v>5.4600000000000364</v>
+        <v>5.5</v>
       </c>
       <c r="S3" s="2">
-        <v>4.65199999999993</v>
+        <v>4.7</v>
       </c>
       <c r="T3" s="1">
-        <v>5.8640000000000327</v>
+        <v>5.9</v>
       </c>
       <c r="U3" s="2">
-        <v>2.6269999999999527</v>
+        <v>2.6</v>
       </c>
       <c r="V3" s="1">
-        <v>5.2560000000000855</v>
+        <v>5.3</v>
       </c>
       <c r="W3" s="2">
-        <v>8.6929999999999836</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="X3" s="3">
-        <v>0.60599999999999454</v>
+        <v>0.6</v>
       </c>
       <c r="Y3" s="2">
-        <v>17.789999999999964</v>
+        <v>17.8</v>
       </c>
       <c r="Z3" s="1">
-        <v>1.82000000000005</v>
+        <v>1.8</v>
       </c>
       <c r="AA3" s="2">
-        <v>2.2229999999999563</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>4.6499999999999773</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC3" s="2">
-        <v>1.2119999999999891</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" s="3">
-        <v>0.20300000000008822</v>
+        <v>0.2</v>
       </c>
       <c r="AE3" s="2">
-        <v>4.0430000000000064</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.63799999999992</v>
+        <v>3.6</v>
       </c>
       <c r="AG3" s="2">
         <v>7.6820000000000164</v>
@@ -1425,258 +1853,258 @@
         <v>6.4690000000000509</v>
       </c>
     </row>
-    <row r="5" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>5.4579999999999984</v>
+        <v>5.5</v>
       </c>
       <c r="C5" s="2">
-        <v>3.2350000000000136</v>
+        <v>3.2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0109999999999957</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4259999999999877</v>
+        <v>2.4</v>
       </c>
       <c r="F5" s="1">
-        <v>4.953000000000003</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
-        <v>5.8619999999999948</v>
+        <v>5.9</v>
       </c>
       <c r="H5" s="1">
-        <v>3.4370000000000118</v>
+        <v>3.4</v>
       </c>
       <c r="I5" s="2">
-        <v>7.4799999999999898</v>
+        <v>7.5</v>
       </c>
       <c r="J5" s="1">
-        <v>2.4260000000000161</v>
+        <v>2.4</v>
       </c>
       <c r="K5" s="2">
-        <v>2.8299999999999841</v>
+        <v>2.8</v>
       </c>
       <c r="L5" s="1">
-        <v>1.8190000000000168</v>
+        <v>1.8</v>
       </c>
       <c r="M5" s="2">
-        <v>3.6389999999999816</v>
+        <v>3.6</v>
       </c>
       <c r="N5" s="1">
-        <v>3.6380000000000052</v>
+        <v>3.6</v>
       </c>
       <c r="O5" s="2">
-        <v>4.0440000000000111</v>
+        <v>4</v>
       </c>
       <c r="P5" s="3">
-        <v>0.40399999999999636</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.0110000000000241</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0.6069999999999709</v>
+        <v>0.6</v>
       </c>
       <c r="S5" s="2">
-        <v>3.8410000000000082</v>
+        <v>3.8</v>
       </c>
       <c r="T5" s="1">
-        <v>2.2230000000000132</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U5" s="2">
-        <v>3.0319999999999823</v>
+        <v>3</v>
       </c>
       <c r="V5" s="1">
-        <v>4.2450000000000045</v>
+        <v>4.2</v>
       </c>
       <c r="W5" s="2">
-        <v>2.2239999999999895</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X5" s="3">
-        <v>0.20199999999999818</v>
+        <v>0.2</v>
       </c>
       <c r="Y5" s="2">
-        <v>9.299000000000035</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Z5" s="1">
-        <v>1.8199999999999932</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" s="2">
-        <v>2.4259999999999877</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>5.0529999999999973</v>
+        <v>2.4</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>5.0999999999999996</v>
       </c>
       <c r="AC5" s="2">
-        <v>2.021000000000015</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.6069999999999709</v>
+        <v>0.6</v>
       </c>
       <c r="AE5" s="2">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.6279999999999859</v>
+        <v>2.6</v>
       </c>
       <c r="AG5" s="2">
-        <v>3.2339999999999804</v>
+        <v>3.2</v>
       </c>
       <c r="AH5" s="3">
-        <v>0.80900000000002592</v>
+        <v>0.8</v>
       </c>
       <c r="AI5" s="2">
-        <v>1.2119999999999891</v>
+        <v>1.2</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0.60599999999999454</v>
+        <v>0.6</v>
       </c>
       <c r="AK5" s="2">
-        <v>1.8199999999999932</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>1.0110000000000241</v>
+        <v>1.8</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>1</v>
       </c>
       <c r="AM5" s="2">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="AN5" s="1">
-        <v>1.2129999999999654</v>
+        <v>1.2</v>
       </c>
       <c r="AO5" s="2">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="AP5" s="3">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5" s="2">
-        <v>15.161000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="AR5" s="1">
-        <v>2.4259999999999877</v>
+        <v>2.4</v>
       </c>
       <c r="AS5" s="2">
-        <v>1.617999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="AT5" s="3">
-        <v>0.20199999999999818</v>
+        <v>0.2</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.106999999999971</v>
+        <v>10.1</v>
       </c>
       <c r="AV5" s="1">
-        <v>1.8190000000000168</v>
+        <v>1.8</v>
       </c>
       <c r="AW5" s="2">
-        <v>4.0430000000000064</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="1">
-        <v>2.8299999999999841</v>
+        <v>2.8</v>
       </c>
       <c r="AY5" s="2">
-        <v>2.0219999999999914</v>
+        <v>2</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.40300000000002001</v>
+        <v>0.4</v>
       </c>
       <c r="BA5" s="2">
-        <v>3.6399999999999864</v>
+        <v>3.6</v>
       </c>
       <c r="BB5" s="1">
-        <v>3.4360000000000355</v>
+        <v>3.4</v>
       </c>
       <c r="BC5" s="2">
-        <v>2.0209999999999582</v>
+        <v>2</v>
       </c>
       <c r="BD5" s="1">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="BE5" s="2">
-        <v>1.6170000000000186</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0.40499999999997272</v>
+        <v>1.6</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0.4</v>
       </c>
       <c r="BG5" s="2">
-        <v>1.0099999999999909</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="3">
-        <v>1.4159999999999968</v>
+        <v>1.4</v>
       </c>
       <c r="BI5" s="2">
-        <v>1.8190000000000168</v>
+        <v>1.8</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.4689999999999941</v>
+        <v>6.5</v>
       </c>
       <c r="BK5" s="2">
-        <v>6.8729999999999905</v>
+        <v>6.9</v>
       </c>
       <c r="BL5" s="1">
-        <v>0.80900000000002592</v>
+        <v>0.8</v>
       </c>
       <c r="BM5" s="2">
-        <v>32.949999999999989</v>
+        <v>32.9</v>
       </c>
       <c r="BN5" s="1">
-        <v>2.6279999999999859</v>
+        <v>2.6</v>
       </c>
       <c r="BO5" s="2">
-        <v>2.4260000000000446</v>
+        <v>2.4</v>
       </c>
       <c r="BP5" s="3">
-        <v>0.60599999999999454</v>
+        <v>0.6</v>
       </c>
       <c r="BQ5" s="2">
-        <v>1.81899999999996</v>
+        <v>1.8</v>
       </c>
       <c r="BR5" s="1">
-        <v>2.8310000000000173</v>
+        <v>2.8</v>
       </c>
       <c r="BS5" s="2">
-        <v>1.6170000000000186</v>
+        <v>1.6</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.4149999999999636</v>
+        <v>1.4</v>
       </c>
       <c r="BU5" s="2">
-        <v>5.6610000000000014</v>
+        <v>5.7</v>
       </c>
       <c r="BV5" s="3">
-        <v>0.60600000000005139</v>
+        <v>0.6</v>
       </c>
       <c r="BW5" s="2">
-        <v>1.4149999999999636</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>0.80799999999999272</v>
+        <v>5.5</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>0.4</v>
       </c>
       <c r="BY5" s="2">
-        <v>3.2350000000000136</v>
+        <v>2.4</v>
       </c>
       <c r="BZ5" s="1">
-        <v>0.40399999999999636</v>
+        <v>2.4</v>
       </c>
       <c r="CA5" s="2">
-        <v>2.4270000000000209</v>
+        <v>5.5</v>
       </c>
       <c r="CB5" s="1">
-        <v>2.4269999999999641</v>
+        <v>0.8</v>
       </c>
       <c r="CC5" s="2">
-        <v>5.4600000000000364</v>
+        <v>1.8</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.80899999999996908</v>
+        <v>1.6</v>
       </c>
       <c r="CE5" s="2">
-        <v>1.8210000000000264</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>1.6170000000000186</v>
+        <v>8.9</v>
       </c>
       <c r="CG5" s="2">
         <v>2.2249999999999659</v>
@@ -1691,344 +2119,344 @@
         <v>2.021000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0430000000000064</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>2.4259999999999309</v>
+        <v>2.4</v>
       </c>
       <c r="D6" s="1">
-        <v>3.0320000000000391</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>3.0330000000000155</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>3.8419999999999845</v>
+        <v>3.8</v>
       </c>
       <c r="G6" s="2">
-        <v>9.9099999999999682</v>
+        <v>9.9</v>
       </c>
       <c r="H6" s="1">
-        <v>4.8530000000000655</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I6" s="2">
-        <v>3.4379999999999882</v>
+        <v>3.4</v>
       </c>
       <c r="J6" s="3">
-        <v>2.8310000000000173</v>
+        <v>2.8</v>
       </c>
       <c r="K6" s="2">
-        <v>1.41599999999994</v>
+        <v>1.4</v>
       </c>
       <c r="L6" s="1">
-        <v>4.2470000000000709</v>
+        <v>4.2</v>
       </c>
       <c r="M6" s="2">
-        <v>10.919999999999959</v>
+        <v>10.9</v>
       </c>
       <c r="N6" s="1">
-        <v>3.23599999999999</v>
+        <v>3.2</v>
       </c>
       <c r="O6" s="2">
-        <v>2.8310000000000173</v>
+        <v>2.8</v>
       </c>
       <c r="P6" s="1">
-        <v>4.0449999999999591</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.6170000000000755</v>
+        <v>1.6</v>
       </c>
       <c r="R6" s="3">
-        <v>0.20299999999997453</v>
+        <v>0.2</v>
       </c>
       <c r="S6" s="2">
-        <v>1.0099999999999909</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>2.6299999999999955</v>
+        <v>2.6</v>
       </c>
       <c r="U6" s="2">
-        <v>3.6399999999999864</v>
+        <v>3.6</v>
       </c>
       <c r="V6" s="1">
-        <v>5.05600000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="W6" s="2">
-        <v>7.4819999999999709</v>
+        <v>7.5</v>
       </c>
       <c r="X6" s="1">
-        <v>6.47199999999998</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" s="2">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
-        <v>1.0110000000000809</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="2">
-        <v>2.2239999999999327</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>8.4920000000000755</v>
+        <v>8.5</v>
       </c>
       <c r="AC6" s="2">
-        <v>6.4689999999999372</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" s="3">
-        <v>1.6170000000000755</v>
+        <v>1.6</v>
       </c>
       <c r="AE6" s="2">
-        <v>2.0209999999999582</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="2">
-        <v>22.440000000000055</v>
+        <v>22.4</v>
       </c>
       <c r="AH6" s="1">
-        <v>6.0639999999999645</v>
+        <v>6.1</v>
       </c>
       <c r="AI6" s="2">
-        <v>15.970000000000027</v>
+        <v>16</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3.4370000000000118</v>
+        <v>3.4</v>
       </c>
       <c r="AK6" s="2">
-        <v>9.0960000000000036</v>
+        <v>9.1</v>
       </c>
       <c r="AL6" s="1">
-        <v>5.05499999999995</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AM6" s="2">
-        <v>6.2649999999999864</v>
+        <v>6.3</v>
       </c>
       <c r="AN6" s="1">
-        <v>6.4690000000000509</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" s="2">
-        <v>1.6179999999999382</v>
+        <v>1.6</v>
       </c>
       <c r="AP6" s="3">
-        <v>0.80799999999999272</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6" s="2">
-        <v>6.6710000000000491</v>
+        <v>6.7</v>
       </c>
       <c r="AR6" s="1">
-        <v>4.4470000000000027</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AS6" s="2">
-        <v>14.55600000000004</v>
+        <v>14.6</v>
       </c>
       <c r="AT6" s="1">
-        <v>7.4789999999999281</v>
+        <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0550000000000637</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>11.319999999999936</v>
+        <v>11.3</v>
       </c>
       <c r="D7" s="1">
-        <v>6.6700000000000728</v>
+        <v>6.7</v>
       </c>
       <c r="E7" s="2">
-        <v>2.8309999999999036</v>
+        <v>2.8</v>
       </c>
       <c r="F7" s="1">
-        <v>2.8300000000000409</v>
+        <v>2.8</v>
       </c>
       <c r="G7" s="2">
-        <v>17.793999999999983</v>
+        <v>17.8</v>
       </c>
       <c r="H7" s="3">
-        <v>4.4490000000000691</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I7" s="2">
-        <v>3.4379999999999882</v>
+        <v>3.4</v>
       </c>
       <c r="J7" s="3">
-        <v>3.5389999999999873</v>
+        <v>3.5</v>
       </c>
       <c r="K7" s="2">
-        <v>6.9769999999999754</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1">
-        <v>1.82000000000005</v>
+        <v>1.8</v>
       </c>
       <c r="M7" s="2">
-        <v>3.0389999999999873</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>2.5240000000000009</v>
+        <v>2.5</v>
       </c>
       <c r="O7" s="2">
-        <v>22.035999999999945</v>
+        <v>22</v>
       </c>
       <c r="P7" s="1">
-        <v>7.3790000000000191</v>
+        <v>7.4</v>
       </c>
       <c r="Q7" s="2">
-        <v>16.879999999999995</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="R7" s="3">
-        <v>4.2450000000000045</v>
+        <v>4.2</v>
       </c>
       <c r="S7" s="2">
-        <v>1.4149999999999636</v>
+        <v>1.4</v>
       </c>
       <c r="T7" s="1">
-        <v>2.7290000000000418</v>
+        <v>2.7</v>
       </c>
       <c r="U7" s="2">
-        <v>19.006999999999948</v>
+        <v>19</v>
       </c>
       <c r="V7" s="1">
-        <v>4.2470000000000709</v>
+        <v>4.2</v>
       </c>
       <c r="W7" s="2">
-        <v>29.826999999999998</v>
+        <v>29.8</v>
       </c>
       <c r="X7" s="3">
-        <v>14.154999999999973</v>
+        <v>14.2</v>
       </c>
       <c r="Y7" s="2">
-        <v>6.2680000000000291</v>
+        <v>6.3</v>
       </c>
       <c r="Z7" s="1">
-        <v>4.0430000000000064</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="2">
-        <v>2.2239999999999327</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AB7" s="3">
-        <v>0.20199999999999818</v>
+        <v>0.2</v>
       </c>
       <c r="AC7" s="2">
-        <v>1.2130000000000791</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" s="1">
-        <v>2.2229999999999563</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE7" s="2">
-        <v>20.418000000000006</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.8509999999999991</v>
+        <v>0.2</v>
       </c>
       <c r="AG7" s="2">
-        <v>18.194000000000074</v>
+        <v>3.6</v>
       </c>
       <c r="AH7" s="1">
-        <v>2.2239999999999327</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI7" s="2">
-        <v>25.673000000000002</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>0.20199999999999818</v>
+        <v>18.2</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AK7" s="2">
-        <v>10.309999999999945</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>1.6169999999999618</v>
+        <v>25.7</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0.2</v>
       </c>
       <c r="AM7" s="2">
-        <v>33.768000000000029</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>4.8530000000000655</v>
+        <v>10.3</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1.6</v>
       </c>
       <c r="AO7" s="2">
-        <v>1.2129999999999654</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>2.0219999999999345</v>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>4.9000000000000004</v>
       </c>
       <c r="AQ7" s="2">
-        <v>9.9050000000002001</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>1.8199999999999363</v>
+        <v>1.2</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>2</v>
       </c>
       <c r="AS7" s="2">
-        <v>6.0639999999998508</v>
+        <v>9.9</v>
       </c>
       <c r="AT7" s="1">
-        <v>3.8410000000001219</v>
+        <v>1.8</v>
       </c>
       <c r="AU7" s="2">
-        <v>13.746000000000095</v>
+        <v>6.1</v>
       </c>
       <c r="AV7" s="1">
-        <v>2.8299999999999272</v>
+        <v>3.8</v>
       </c>
       <c r="AW7" s="2">
-        <v>6.6720000000000255</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>0.40300000000002001</v>
+        <v>13.7</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>2.8</v>
       </c>
       <c r="AY7" s="2">
-        <v>23.449999999999818</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>3.4360000000001492</v>
+        <v>6.7</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>0.4</v>
       </c>
       <c r="BA7" s="2">
-        <v>1.8199999999999363</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>1.8199999999999363</v>
+        <v>23.4</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>3.4</v>
       </c>
       <c r="BC7" s="2">
-        <v>9.0960000000000036</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>3.0320000000001528</v>
+        <v>1.8</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>1.8</v>
       </c>
       <c r="BE7" s="2">
-        <v>11.319999999999936</v>
+        <v>9.1</v>
       </c>
       <c r="BF7" s="1">
-        <v>3.6389999999998963</v>
+        <v>3</v>
       </c>
       <c r="BG7" s="2">
-        <v>2.0220000000001619</v>
+        <v>11.3</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.40399999999999636</v>
+        <v>3.6</v>
       </c>
       <c r="BI7" s="2">
-        <v>1.2129999999999654</v>
-      </c>
-      <c r="BJ7" s="3">
-        <v>0.60599999999999454</v>
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0.4</v>
       </c>
       <c r="BK7" s="2">
-        <v>15.365999999999985</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>3.8430000000000746</v>
+        <v>1.2</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>0.6</v>
       </c>
       <c r="BM7" s="2">
-        <v>21.833999999999833</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>2.4260000000001583</v>
+        <v>15.4</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>3.8</v>
       </c>
       <c r="BO7" s="2">
         <v>1.4139999999999873</v>
@@ -2037,234 +2465,234 @@
         <v>3.0329999999999018</v>
       </c>
     </row>
-    <row r="8" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7309999999999945</v>
+        <v>1.7</v>
       </c>
       <c r="C8" s="2">
-        <v>3.0320000000000107</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>4.9819999999999993</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>2.5989999999999895</v>
+        <v>2.6</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0820000000000221</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>1.9489999999999839</v>
+        <v>1.9</v>
       </c>
       <c r="H8" s="1">
-        <v>1.9500000000000171</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
-        <v>5.84699999999998</v>
+        <v>5.8</v>
       </c>
       <c r="J8" s="1">
-        <v>0.21600000000000819</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="2">
-        <v>5.414999999999992</v>
+        <v>5.4</v>
       </c>
       <c r="L8" s="1">
-        <v>1.9480000000000075</v>
+        <v>1.9</v>
       </c>
       <c r="M8" s="2">
-        <v>1.9490000000000123</v>
+        <v>1.9</v>
       </c>
       <c r="N8" s="1">
-        <v>2.1659999999999968</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O8" s="2">
-        <v>6.7139999999999986</v>
+        <v>6.7</v>
       </c>
       <c r="P8" s="3">
-        <v>2.8149999999999977</v>
+        <v>2.8</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.5159999999999911</v>
+        <v>1.5</v>
       </c>
       <c r="R8" s="1">
-        <v>0.65000000000000568</v>
+        <v>0.7</v>
       </c>
       <c r="S8" s="2">
-        <v>2.382000000000005</v>
+        <v>2.4</v>
       </c>
       <c r="T8" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="U8" s="2">
-        <v>22.305999999999983</v>
+        <v>22.3</v>
       </c>
       <c r="V8" s="3">
-        <v>0.21700000000004138</v>
+        <v>0.2</v>
       </c>
       <c r="W8" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="X8" s="3">
-        <v>0.21600000000000819</v>
+        <v>0.2</v>
       </c>
       <c r="Y8" s="2">
-        <v>5.1979999999999791</v>
+        <v>5.2</v>
       </c>
       <c r="Z8" s="1">
-        <v>3.4639999999999986</v>
+        <v>3.5</v>
       </c>
       <c r="AA8" s="2">
-        <v>1.9500000000000455</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="1">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="AC8" s="2">
-        <v>1.7320000000000277</v>
+        <v>1.7</v>
       </c>
       <c r="AD8" s="3">
-        <v>2.1659999999999968</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE8" s="2">
-        <v>1.9490000000000123</v>
+        <v>1.9</v>
       </c>
       <c r="AF8" s="3">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="AG8" s="2">
-        <v>4.9810000000000514</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="1">
-        <v>8.4459999999999695</v>
+        <v>8.4</v>
       </c>
       <c r="AI8" s="2">
-        <v>2.5980000000000132</v>
+        <v>2.6</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="AK8" s="2">
-        <v>6.0640000000000214</v>
+        <v>6.1</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.21699999999998454</v>
+        <v>0.2</v>
       </c>
       <c r="AM8" s="2">
-        <v>27.069000000000017</v>
+        <v>27.1</v>
       </c>
       <c r="AN8" s="1">
-        <v>2.5989999999999895</v>
+        <v>2.6</v>
       </c>
       <c r="AO8" s="2">
-        <v>3.8979999999999677</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>5.1970000000000027</v>
+        <v>3.9</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>5.2</v>
       </c>
       <c r="AQ8" s="2">
-        <v>17.109000000000037</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>1.0819999999999936</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS8" s="2">
-        <v>1.7330000000000041</v>
+        <v>1.7</v>
       </c>
       <c r="AT8" s="1">
-        <v>2.382000000000005</v>
+        <v>2.4</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.1139999999999759</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>5.8470000000000368</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>5.8</v>
       </c>
       <c r="AW8" s="2">
-        <v>4.3319999999999936</v>
+        <v>4.3</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.43299999999999272</v>
+        <v>0.4</v>
       </c>
       <c r="AY8" s="2">
-        <v>8.228999999999985</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0.86599999999998545</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0.9</v>
       </c>
       <c r="BA8" s="2">
-        <v>7.3629999999999995</v>
+        <v>7.4</v>
       </c>
       <c r="BB8" s="1">
-        <v>5.6299999999999955</v>
+        <v>5.6</v>
       </c>
       <c r="BC8" s="2">
-        <v>6.9300000000000068</v>
+        <v>6.9</v>
       </c>
       <c r="BD8" s="1">
-        <v>2.1650000000000205</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BE8" s="2">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="BF8" s="1">
-        <v>1.7330000000000041</v>
+        <v>1.7</v>
       </c>
       <c r="BG8" s="2">
-        <v>3.8980000000000246</v>
+        <v>3.9</v>
       </c>
       <c r="BH8" s="3">
-        <v>0.86700000000001864</v>
+        <v>0.9</v>
       </c>
       <c r="BI8" s="2">
-        <v>1.2989999999999782</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>1.3</v>
       </c>
       <c r="BK8" s="2">
-        <v>1.5160000000000196</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>1.5160000000000196</v>
+        <v>7.1</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>1.3</v>
       </c>
       <c r="BM8" s="2">
-        <v>4.1139999999999759</v>
+        <v>1.3</v>
       </c>
       <c r="BN8" s="1">
-        <v>1.3000000000000114</v>
+        <v>4.8</v>
       </c>
       <c r="BO8" s="2">
-        <v>1.2989999999999782</v>
+        <v>7.6</v>
       </c>
       <c r="BP8" s="1">
-        <v>4.7649999999999864</v>
+        <v>4.8</v>
       </c>
       <c r="BQ8" s="2">
-        <v>7.5780000000000314</v>
+        <v>3.7</v>
       </c>
       <c r="BR8" s="1">
-        <v>4.7649999999999864</v>
+        <v>1.3</v>
       </c>
       <c r="BS8" s="2">
-        <v>3.6809999999999832</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.3000000000000114</v>
+        <v>2.4</v>
       </c>
       <c r="BU8" s="2">
-        <v>9.7450000000000045</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>2.382000000000005</v>
+        <v>1.5</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>2.8</v>
       </c>
       <c r="BW8" s="2">
-        <v>1.5149999999999864</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BX8" s="1">
-        <v>2.8149999999999977</v>
+        <v>0.9</v>
       </c>
       <c r="BY8" s="2">
         <v>4.1160000000000423</v>
@@ -2273,388 +2701,406 @@
         <v>0.86499999999995225</v>
       </c>
     </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="C9" s="2">
-        <v>8.2290000000000418</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>2.8160000000000309</v>
+        <v>2.8</v>
       </c>
       <c r="E9" s="2">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="F9" s="1">
-        <v>3.4650000000000318</v>
+        <v>3.5</v>
       </c>
       <c r="G9" s="2">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
       </c>
       <c r="H9" s="1">
-        <v>0.8669999999999618</v>
+        <v>0.9</v>
       </c>
       <c r="I9" s="2">
-        <v>36.59800000000007</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J9" s="1">
-        <v>1.08299999999997</v>
+        <v>0.2</v>
       </c>
       <c r="K9" s="2">
-        <v>1.7319999999999709</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="L9" s="1">
-        <v>3.2480000000000473</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M9" s="2">
-        <v>1.2999999999999545</v>
+        <v>1.7</v>
       </c>
       <c r="N9" s="1">
-        <v>1.08299999999997</v>
+        <v>3.2</v>
       </c>
       <c r="O9" s="2">
-        <v>1.0830000000000837</v>
+        <v>1.3</v>
       </c>
       <c r="P9" s="1">
-        <v>3.8979999999999109</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q9" s="2">
-        <v>2.59800000000007</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1.5159999999999627</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3.9</v>
       </c>
       <c r="S9" s="2">
-        <v>4.1150000000000091</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1.2989999999999782</v>
+        <v>2.6</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1.5</v>
       </c>
       <c r="U9" s="2">
-        <v>3.8990000000000009</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V9" s="1">
-        <v>3.4640000000000555</v>
+        <v>1.3</v>
       </c>
       <c r="W9" s="2">
-        <v>1.7319999999999709</v>
+        <v>3.9</v>
       </c>
       <c r="X9" s="1">
-        <v>2.3820000000000618</v>
+        <v>3.5</v>
       </c>
       <c r="Y9" s="2">
-        <v>14.508999999999901</v>
+        <v>1.7</v>
       </c>
       <c r="Z9" s="1">
-        <v>3.4660000000000082</v>
+        <v>2.4</v>
       </c>
       <c r="AA9" s="2">
-        <v>1.7320000000000846</v>
+        <v>14.5</v>
       </c>
       <c r="AB9" s="1">
-        <v>3.4649999999999181</v>
+        <v>3.5</v>
       </c>
       <c r="AC9" s="2">
-        <v>2.3820000000000618</v>
+        <v>1.7</v>
       </c>
       <c r="AD9" s="1">
-        <v>2.5989999999999327</v>
+        <v>3.5</v>
       </c>
       <c r="AE9" s="2">
-        <v>13.966999999999985</v>
+        <v>2.4</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.2490000000000236</v>
+        <v>2.6</v>
       </c>
       <c r="AG9" s="2">
-        <v>2.1650000000000773</v>
+        <v>14</v>
       </c>
       <c r="AH9" s="1">
-        <v>0.8669999999999618</v>
+        <v>3.2</v>
       </c>
       <c r="AI9" s="2">
-        <v>1.5149999999999864</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0.21699999999998454</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.9</v>
       </c>
       <c r="AK9" s="2">
-        <v>6.9300000000000637</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>2.5989999999999327</v>
+        <v>1.5</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0.2</v>
       </c>
       <c r="AM9" s="2">
-        <v>11.476999999999975</v>
+        <v>6.9</v>
       </c>
       <c r="AN9" s="1">
-        <v>1.7320000000000846</v>
+        <v>2.6</v>
       </c>
       <c r="AO9" s="2">
-        <v>11.476999999999975</v>
+        <v>11.5</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.5159999999999627</v>
+        <v>1.7</v>
       </c>
       <c r="AQ9" s="2">
-        <v>8.8790000000000191</v>
+        <v>11.5</v>
       </c>
       <c r="AR9" s="1">
-        <v>3.4650000000000318</v>
+        <v>1.5</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>10.394999999999982</v>
+        <v>10.4</v>
       </c>
       <c r="C10" s="2">
-        <v>2.5979999999999563</v>
+        <v>2.6</v>
       </c>
       <c r="D10" s="1">
-        <v>1.2990000000000919</v>
+        <v>1.3</v>
       </c>
       <c r="E10" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="F10" s="3">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="G10" s="2">
-        <v>3.68100000000004</v>
+        <v>3.7</v>
       </c>
       <c r="H10" s="3">
-        <v>0.43299999999999272</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="2">
-        <v>2.3819999999999482</v>
+        <v>2.4</v>
       </c>
       <c r="J10" s="1">
-        <v>0.86700000000007549</v>
+        <v>0.9</v>
       </c>
       <c r="K10" s="2">
-        <v>1.5149999999999864</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="1">
-        <v>1.5169999999999391</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="2">
-        <v>1.9480000000000928</v>
+        <v>1.9</v>
       </c>
       <c r="N10" s="1">
-        <v>3.2479999999999336</v>
+        <v>3.2</v>
       </c>
       <c r="O10" s="2">
-        <v>6.9300000000000637</v>
+        <v>6.9</v>
       </c>
       <c r="P10" s="1">
-        <v>3.4639999999999418</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" s="2">
-        <v>2.3830000000000382</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1.0819999999999936</v>
+        <v>2.4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="S10" s="2">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T10" s="1">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1.9489999999999839</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.5150000000000148</v>
+        <v>1.9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.21699999999998454</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.6310000000000002</v>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.6</v>
       </c>
       <c r="F11" s="1">
-        <v>4.3320000000000221</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8.6619999999999777</v>
+        <v>4.3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.6999999999999993</v>
       </c>
       <c r="H11" s="1">
-        <v>1.5149999999999864</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9.0960000000000036</v>
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.1</v>
       </c>
       <c r="J11" s="3">
-        <v>0.43400000000002592</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3.8980000000000246</v>
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.9</v>
       </c>
       <c r="L11" s="1">
-        <v>2.1649999999999636</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3.2490000000000236</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.2</v>
       </c>
       <c r="N11" s="1">
-        <v>2.8149999999999977</v>
-      </c>
-      <c r="O11" s="3">
-        <v>11.260999999999967</v>
+        <v>2.8</v>
+      </c>
+      <c r="O11" s="2">
+        <v>11.3</v>
       </c>
       <c r="P11" s="3">
-        <v>1.5150000000000432</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1.9499999999999886</v>
+        <v>1.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.9</v>
       </c>
       <c r="R11" s="1">
-        <v>5.84699999999998</v>
-      </c>
-      <c r="S11" s="3">
-        <v>3.0319999999999823</v>
+        <v>5.8</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3</v>
       </c>
       <c r="T11" s="1">
-        <v>2.382000000000005</v>
-      </c>
-      <c r="U11" s="3">
-        <v>6.2800000000000296</v>
+        <v>2.4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>6.3</v>
       </c>
       <c r="V11" s="1">
-        <v>6.9300000000000068</v>
-      </c>
-      <c r="W11" s="3">
-        <v>9.0960000000000036</v>
+        <v>6.9</v>
+      </c>
+      <c r="W11" s="2">
+        <v>9.1</v>
       </c>
       <c r="X11" s="1">
-        <v>4.5469999999999686</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>6.7139999999999986</v>
+        <v>4.5</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>6.7</v>
       </c>
       <c r="Z11" s="1">
-        <v>3.0310000000000059</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>2.382000000000005</v>
+        <v>3</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>2.4</v>
       </c>
       <c r="AB11" s="3">
-        <v>0.86700000000001864</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>2.1639999999999873</v>
+        <v>0.9</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>6.0649999999999977</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>4.76400000000001</v>
+        <v>6.1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>4.8</v>
       </c>
       <c r="AF11" s="3">
-        <v>4.9809999999999945</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>15.591000000000008</v>
+        <v>5</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>15.6</v>
       </c>
       <c r="AH11" s="3">
-        <v>4.3319999999999936</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>2.1659999999999968</v>
+        <v>4.3</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AJ11" s="1">
-        <v>8.228999999999985</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>2.5989999999999895</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>2.6</v>
       </c>
       <c r="AL11" s="1">
-        <v>1.7320000000000277</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>3.8969999999999914</v>
+        <v>1.7</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>3.9</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.86700000000001864</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>1.08299999999997</v>
+        <v>0.9</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP11" s="3">
-        <v>1.3000000000000114</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>6.0629999999999882</v>
+        <v>1.3</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>6.1</v>
       </c>
       <c r="AR11" s="1">
-        <v>4.5470000000000255</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>2.5980000000000132</v>
+        <v>4.5</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>2.6</v>
       </c>
       <c r="AT11" s="3">
-        <v>5.84699999999998</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>8.2300000000000182</v>
+        <v>5.8</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>8.1999999999999993</v>
       </c>
       <c r="AV11" s="3">
-        <v>5.4139999999999873</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>2.1649999999999636</v>
+        <v>5.4</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>1.9490000000000123</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>5.1970000000000027</v>
+        <v>1.9</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>5.2</v>
       </c>
       <c r="AZ11" s="3">
-        <v>3.4650000000000318</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>8.4459999999999695</v>
+        <v>3.5</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>8.4</v>
       </c>
       <c r="BB11" s="3">
-        <v>0.21600000000000819</v>
-      </c>
-      <c r="BC11" s="3">
-        <v>1.3000000000000114</v>
+        <v>0.2</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>1.3</v>
       </c>
       <c r="BD11" s="1">
-        <v>0.64900000000000091</v>
-      </c>
-      <c r="BE11" s="3">
-        <v>9.9629999999999654</v>
+        <v>0.6</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>10</v>
       </c>
       <c r="BF11" s="3">
-        <v>0.64900000000000091</v>
-      </c>
-      <c r="BG11" s="3">
-        <v>2.1659999999999968</v>
+        <v>0.6</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>2.2000000000000002</v>
       </c>
       <c r="BH11" s="3">
-        <v>0.64900000000000091</v>
-      </c>
-      <c r="BI11" s="3">
-        <v>5.8470000000000368</v>
+        <v>0.6</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>5.8</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.64999999999997726</v>
+        <v>0.6</v>
       </c>
       <c r="BK11" s="3">
         <v>2.1659999999999968</v>
@@ -2669,1198 +3115,1216 @@
         <v>0.64999999999997726</v>
       </c>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.8969999999999345</v>
+        <v>1.7</v>
       </c>
       <c r="C12" s="2">
-        <v>2.8160000000000309</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>4.1150000000000091</v>
+        <v>3.9</v>
       </c>
       <c r="E12" s="2">
-        <v>19.490000000000009</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.3819999999999482</v>
+        <v>2.8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G12" s="2">
-        <v>1.7319999999999709</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3.2490000000000236</v>
+        <v>19.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.4</v>
       </c>
       <c r="I12" s="2">
-        <v>2.1660000000000537</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1.5159999999999627</v>
+        <v>1.7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.2</v>
       </c>
       <c r="K12" s="2">
-        <v>8.4460000000000264</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1.5149999999999864</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.5</v>
       </c>
       <c r="M12" s="2">
-        <v>2.5990000000000464</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.64999999999997726</v>
+        <v>8.4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.5</v>
       </c>
       <c r="O12" s="2">
-        <v>2.16599999999994</v>
-      </c>
-      <c r="P12" s="1">
-        <v>3.4640000000000555</v>
+        <v>2.6</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.6</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.9499999999999318</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1.7320000000000846</v>
+        <v>3.5</v>
       </c>
       <c r="S12" s="2">
-        <v>1.2989999999999782</v>
-      </c>
-      <c r="T12" s="3">
-        <v>2.16599999999994</v>
+        <v>1.9</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.7</v>
       </c>
       <c r="U12" s="2">
-        <v>2.3820000000000618</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.86599999999998545</v>
+        <v>1.3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2.2000000000000002</v>
       </c>
       <c r="W12" s="2">
-        <v>1.7319999999999709</v>
+        <v>2.4</v>
       </c>
       <c r="X12" s="1">
-        <v>0.6510000000000673</v>
+        <v>0.9</v>
       </c>
       <c r="Y12" s="2">
-        <v>5.84699999999998</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>4.9800000000000182</v>
+        <v>1.7</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.7</v>
       </c>
       <c r="AA12" s="2">
-        <v>3.0319999999999254</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>2.59800000000007</v>
+        <v>5.8</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>5</v>
       </c>
       <c r="AC12" s="2">
-        <v>4.3319999999999936</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>1.0819999999999936</v>
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>2.6</v>
       </c>
       <c r="AE12" s="2">
-        <v>6.2799999999999727</v>
+        <v>4.3</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.5159999999999627</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG12" s="2">
-        <v>4.5490000000000919</v>
+        <v>6.3</v>
       </c>
       <c r="AH12" s="1">
-        <v>6.7119999999999891</v>
+        <v>1.5</v>
       </c>
       <c r="AI12" s="2">
-        <v>2.8159999999999172</v>
+        <v>4.5</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2.7180000000000746</v>
+        <v>6.7</v>
       </c>
       <c r="AK12" s="2">
-        <v>1.0720000000000027</v>
+        <v>2.8</v>
       </c>
       <c r="AL12" s="1">
-        <v>1.0819999999999936</v>
+        <v>2.7</v>
       </c>
       <c r="AM12" s="2">
-        <v>5.84699999999998</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>6.4959999999999809</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO12" s="2">
-        <v>12.994000000000028</v>
+        <v>5.8</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.5149999999999864</v>
+        <v>6.5</v>
       </c>
       <c r="AQ12" s="2">
-        <v>7.3629999999999427</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>2.8160000000000309</v>
+        <v>13</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>1.5</v>
       </c>
       <c r="AS12" s="2">
-        <v>2.8150000000000546</v>
+        <v>7.4</v>
       </c>
       <c r="AT12" s="1">
-        <v>1.2989999999999782</v>
+        <v>2.8</v>
       </c>
       <c r="AU12" s="2">
-        <v>3.8980000000000246</v>
+        <v>2.8</v>
       </c>
       <c r="AV12" s="1">
-        <v>4.9800000000000182</v>
+        <v>1.3</v>
       </c>
       <c r="AW12" s="2">
-        <v>2.3829999999999245</v>
+        <v>3.9</v>
       </c>
       <c r="AX12" s="1">
-        <v>6.4970000000000709</v>
+        <v>5</v>
       </c>
       <c r="AY12" s="2">
-        <v>10.6099999999999</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>3.8980000000000246</v>
+        <v>2.4</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>6.5</v>
       </c>
       <c r="BA12" s="2">
-        <v>2.3820000000000618</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>1.5159999999999627</v>
+        <v>10.6</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>3.9</v>
       </c>
       <c r="BC12" s="2">
-        <v>6.9289999999999736</v>
+        <v>2.4</v>
       </c>
       <c r="BD12" s="1">
-        <v>1.3000000000000682</v>
+        <v>1.5</v>
       </c>
       <c r="BE12" s="2">
-        <v>2.8159999999999172</v>
+        <v>6.9</v>
       </c>
       <c r="BF12" s="1">
-        <v>4.3300000000000409</v>
+        <v>1.3</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="C13" s="2">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="D13" s="1">
-        <v>9.52800000000002</v>
+        <v>9.5</v>
       </c>
       <c r="E13" s="2">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="F13" s="3">
-        <v>3.2479999999999336</v>
+        <v>3.2</v>
       </c>
       <c r="G13" s="2">
-        <v>1.0819999999999936</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>6.7129999999999654</v>
+        <v>6.7</v>
       </c>
       <c r="I13" s="2">
-        <v>8.6620000000000346</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J13" s="3">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="K13" s="2">
-        <v>3.2480000000000473</v>
+        <v>3.2</v>
       </c>
       <c r="L13" s="3">
-        <v>14.076000000000022</v>
+        <v>14.1</v>
       </c>
       <c r="M13" s="2">
-        <v>3.2479999999999336</v>
+        <v>3.2</v>
       </c>
       <c r="N13" s="3">
-        <v>4.76400000000001</v>
+        <v>4.8</v>
       </c>
       <c r="O13" s="2">
-        <v>5.6310000000000855</v>
+        <v>5.6</v>
       </c>
       <c r="P13" s="1">
-        <v>3.6809999999999263</v>
+        <v>3.7</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="R13" s="1">
-        <v>2.1650000000000773</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S13" s="2">
-        <v>1.5169999999999391</v>
+        <v>1.5</v>
       </c>
       <c r="T13" s="3">
-        <v>1.5149999999999864</v>
+        <v>1.5</v>
       </c>
       <c r="U13" s="2">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
       <c r="V13" s="1">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
       </c>
       <c r="W13" s="2">
-        <v>4.5480000000000018</v>
+        <v>4.5</v>
       </c>
       <c r="X13" s="1">
-        <v>4.9809999999999945</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="2">
-        <v>1.9479999999999791</v>
+        <v>1.9</v>
       </c>
       <c r="Z13" s="3">
-        <v>6.2800000000000864</v>
+        <v>6.3</v>
       </c>
       <c r="AA13" s="2">
-        <v>1.5169999999999391</v>
+        <v>1.5</v>
       </c>
       <c r="AB13" s="3">
-        <v>1.5149999999999864</v>
+        <v>1.5</v>
       </c>
       <c r="AC13" s="2">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
       <c r="AD13" s="1">
-        <v>3.6820000000000164</v>
+        <v>3.7</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.909999999999968</v>
+        <v>11.9</v>
       </c>
       <c r="AG13" s="2">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="AH13" s="1">
-        <v>4.3310000000000173</v>
+        <v>4.3</v>
       </c>
       <c r="AI13" s="2">
-        <v>1.5160000000000764</v>
+        <v>1.5</v>
       </c>
       <c r="AJ13" s="3">
-        <v>0.64900000000000091</v>
+        <v>0.6</v>
       </c>
       <c r="AK13" s="2">
-        <v>3.0319999999999254</v>
+        <v>3</v>
       </c>
       <c r="AL13" s="3">
-        <v>1.7330000000000609</v>
+        <v>1.7</v>
       </c>
       <c r="AM13" s="2">
-        <v>8.2289999999999281</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AN13" s="3">
-        <v>4.5470000000000255</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" s="2">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.86600000000009913</v>
+        <v>0.9</v>
       </c>
       <c r="AQ13" s="2">
-        <v>3.6809999999999263</v>
+        <v>3.7</v>
       </c>
       <c r="AR13" s="3">
-        <v>6.7140000000000555</v>
+        <v>6.7</v>
       </c>
       <c r="AS13" s="2">
-        <v>13.858999999999924</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>1.7330000000000609</v>
+        <v>13.9</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>1.7</v>
       </c>
       <c r="AU13" s="2">
-        <v>12.775999999999954</v>
+        <v>12.8</v>
       </c>
       <c r="AV13" s="3">
-        <v>3.4650000000000318</v>
+        <v>3.5</v>
       </c>
       <c r="AW13" s="2">
-        <v>6.4959999999999809</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>4.5480000000000018</v>
+        <v>6.5</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>4.5</v>
       </c>
       <c r="AY13" s="2">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="AZ13" s="3">
-        <v>1.7330000000000609</v>
+        <v>1.7</v>
       </c>
       <c r="BA13" s="2">
-        <v>2.3819999999999482</v>
+        <v>2.4</v>
       </c>
       <c r="BB13" s="3">
-        <v>2.1650000000000773</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BC13" s="2">
-        <v>9.3129999999998745</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="BD13" s="1">
-        <v>3.68100000000004</v>
+        <v>3.7</v>
       </c>
       <c r="BE13" s="2">
-        <v>3.2480000000000473</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>8.8789999999999054</v>
+        <v>3.2</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>8.9</v>
       </c>
       <c r="BG13" s="2">
-        <v>1.2990000000002055</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>1.515999999999849</v>
+        <v>1.3</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>1.5</v>
       </c>
       <c r="BI13" s="2">
-        <v>2.1649999999999636</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.5480000000000018</v>
+        <v>4.5</v>
       </c>
       <c r="BK13" s="2">
-        <v>1.7319999999999709</v>
-      </c>
-      <c r="BL13" s="1">
-        <v>3.0320000000001528</v>
+        <v>1.7</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>3</v>
       </c>
       <c r="BM13" s="2">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="BN13" s="1">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="BO13" s="2">
-        <v>11.260999999999967</v>
+        <v>11.3</v>
       </c>
       <c r="BP13" s="1">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
       </c>
       <c r="BQ13" s="2">
-        <v>1.0830000000000837</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>1.0820000000001073</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BS13" s="2">
-        <v>1.0829999999998563</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.0130000000001473</v>
+        <v>8</v>
       </c>
       <c r="BU13" s="2">
-        <v>26.63799999999992</v>
+        <v>26.6</v>
       </c>
       <c r="BV13" s="3">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="BW13" s="2">
-        <v>1.515999999999849</v>
+        <v>1.5</v>
       </c>
       <c r="BX13" s="3">
-        <v>0.6490000000001146</v>
+        <v>0.6</v>
       </c>
       <c r="BY13" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1.08400000000006</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CA13" s="2">
-        <v>1.0819999999998799</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CB13" s="3">
-        <v>2.3830000000000382</v>
+        <v>2.4</v>
       </c>
       <c r="CC13" s="2">
-        <v>5.6299999999998818</v>
-      </c>
-      <c r="CD13" s="1">
-        <v>3.2490000000000236</v>
+        <v>5.6</v>
+      </c>
+      <c r="CD13" s="3">
+        <v>3.2</v>
       </c>
       <c r="CE13" s="2">
-        <v>5.6300000000001091</v>
+        <v>5.6</v>
       </c>
       <c r="CF13" s="1">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="CG13" s="2">
-        <v>30.211000000000013</v>
+        <v>30.2</v>
       </c>
       <c r="CH13" s="1">
-        <v>9.5289999999999964</v>
+        <v>9.5</v>
       </c>
       <c r="CI13" s="2">
-        <v>1.515999999999849</v>
+        <v>1.5</v>
       </c>
       <c r="CJ13" s="3">
-        <v>0.43299999999999272</v>
+        <v>0.4</v>
       </c>
       <c r="CK13" s="2">
-        <v>8.0140000000001237</v>
+        <v>8</v>
       </c>
       <c r="CL13" s="1">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>8</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>6.3</v>
       </c>
     </row>
-    <row r="14" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2.8160000000000025</v>
+        <v>2.8</v>
       </c>
       <c r="C14" s="2">
-        <v>2.8149999999999977</v>
+        <v>2.8</v>
       </c>
       <c r="D14" s="1">
-        <v>1.7330000000000041</v>
+        <v>1.7</v>
       </c>
       <c r="E14" s="2">
-        <v>11.044000000000011</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
-        <v>1.7329999999999757</v>
+        <v>1.7</v>
       </c>
       <c r="G14" s="2">
-        <v>5.4140000000000157</v>
+        <v>5.4</v>
       </c>
       <c r="H14" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="2">
-        <v>7.5800000000000125</v>
+        <v>7.6</v>
       </c>
       <c r="J14" s="1">
-        <v>2.1659999999999968</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K14" s="2">
-        <v>2.164999999999992</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L14" s="1">
-        <v>1.0829999999999984</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M14" s="2">
-        <v>22.307000000000016</v>
+        <v>22.3</v>
       </c>
       <c r="N14" s="1">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="O14" s="2">
-        <v>21.656000000000006</v>
+        <v>21.7</v>
       </c>
       <c r="P14" s="1">
-        <v>3.6809999999999832</v>
+        <v>3.7</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.299000000000035</v>
+        <v>1.3</v>
       </c>
       <c r="R14" s="3">
-        <v>0.21600000000000819</v>
+        <v>0.2</v>
       </c>
       <c r="S14" s="2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" s="1">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="U14" s="2">
-        <v>4.1140000000000327</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V14" s="1">
-        <v>0.8669999999999618</v>
+        <v>0.9</v>
       </c>
       <c r="W14" s="2">
-        <v>7.3620000000000232</v>
+        <v>7.4</v>
       </c>
       <c r="X14" s="3">
-        <v>0.8669999999999618</v>
+        <v>0.9</v>
       </c>
       <c r="Y14" s="2">
-        <v>2.5980000000000132</v>
+        <v>2.6</v>
       </c>
       <c r="Z14" s="3">
-        <v>3.2490000000000236</v>
+        <v>3.2</v>
       </c>
       <c r="AA14" s="2">
-        <v>4.76400000000001</v>
+        <v>4.8</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.6819999999999595</v>
+        <v>3.7</v>
       </c>
       <c r="AC14" s="2">
-        <v>24.470000000000027</v>
+        <v>24.5</v>
       </c>
       <c r="AD14" s="1">
-        <v>3.6809999999999832</v>
+        <v>3.7</v>
       </c>
       <c r="AE14" s="2">
-        <v>4.7649999999999864</v>
+        <v>4.8</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.86600000000004229</v>
+        <v>0.9</v>
       </c>
       <c r="AG14" s="2">
-        <v>11.69399999999996</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>1.5160000000000196</v>
+        <v>11.7</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>1.5</v>
       </c>
       <c r="AI14" s="2">
-        <v>9.0960000000000036</v>
+        <v>9.1</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1.3000000000000114</v>
+        <v>1.3</v>
       </c>
       <c r="AK14" s="2">
-        <v>21.437999999999988</v>
+        <v>21.4</v>
       </c>
       <c r="AL14" s="1">
-        <v>1.7330000000000041</v>
+        <v>1.7</v>
       </c>
       <c r="AM14" s="2">
-        <v>5.4139999999999873</v>
+        <v>5.4</v>
       </c>
       <c r="AN14" s="1">
-        <v>3.0310000000000059</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="2">
-        <v>9.7450000000000045</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.8149999999999977</v>
+        <v>2.8</v>
       </c>
       <c r="AQ14" s="2">
-        <v>4.1139999999999759</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>0.86700000000001864</v>
+        <v>0.9</v>
       </c>
       <c r="AS14" s="2">
-        <v>8.228999999999985</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AT14" s="1">
-        <v>1.7320000000000277</v>
+        <v>1.7</v>
       </c>
       <c r="AU14" s="2">
-        <v>11.045000000000016</v>
+        <v>11</v>
       </c>
       <c r="AV14" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5.4130000000000109</v>
+        <v>5.4</v>
       </c>
       <c r="C15" s="2">
-        <v>3.8990000000000009</v>
+        <v>3.9</v>
       </c>
       <c r="D15" s="1">
-        <v>3.4650000000000318</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="2">
-        <v>12.775999999999954</v>
+        <v>12.8</v>
       </c>
       <c r="F15" s="1">
-        <v>4.3319999999999936</v>
+        <v>4.3</v>
       </c>
       <c r="G15" s="2">
-        <v>5.8470000000000937</v>
+        <v>5.8</v>
       </c>
       <c r="H15" s="1">
-        <v>9.3120000000000118</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I15" s="2">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
       </c>
       <c r="J15" s="3">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="K15" s="2">
-        <v>1.3000000000000682</v>
+        <v>1.3</v>
       </c>
       <c r="L15" s="1">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="M15" s="2">
-        <v>8.44500000000005</v>
+        <v>8.4</v>
       </c>
       <c r="N15" s="3">
-        <v>5.4139999999999873</v>
+        <v>5.4</v>
       </c>
       <c r="O15" s="2">
-        <v>2.5990000000000464</v>
+        <v>2.6</v>
       </c>
       <c r="P15" s="1">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" s="2">
-        <v>3.8980000000000246</v>
+        <v>3.9</v>
       </c>
       <c r="R15" s="3">
-        <v>0.64999999999997726</v>
+        <v>0.6</v>
       </c>
       <c r="S15" s="2">
-        <v>1.2989999999999782</v>
-      </c>
-      <c r="T15" s="1">
-        <v>2.5990000000000464</v>
+        <v>1.3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2.6</v>
       </c>
       <c r="U15" s="2">
-        <v>2.3819999999999482</v>
+        <v>2.4</v>
       </c>
       <c r="V15" s="1">
-        <v>7.7950000000000728</v>
+        <v>7.8</v>
       </c>
       <c r="W15" s="2">
-        <v>4.7649999999999864</v>
+        <v>4.8</v>
       </c>
       <c r="X15" s="1">
-        <v>8.6619999999999209</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Y15" s="2">
-        <v>4.9809999999999945</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="1">
-        <v>3.8980000000000246</v>
+        <v>3.9</v>
       </c>
       <c r="AA15" s="2">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1.7320000000000846</v>
+        <v>1.7</v>
       </c>
       <c r="AC15" s="2">
-        <v>8.8790000000000191</v>
+        <v>8.9</v>
       </c>
       <c r="AD15" s="3">
-        <v>0.41699999999991633</v>
+        <v>0.4</v>
       </c>
       <c r="AE15" s="2">
-        <v>1.6410000000000764</v>
+        <v>1.6</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.3299999999999272</v>
+        <v>4.3</v>
       </c>
       <c r="AG15" s="2">
-        <v>4.9809999999999945</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="1">
-        <v>1.2990000000000919</v>
+        <v>1.3</v>
       </c>
       <c r="AI15" s="2">
-        <v>17.756999999999948</v>
+        <v>17.8</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="AK15" s="2">
-        <v>11.044000000000096</v>
+        <v>11</v>
       </c>
       <c r="AL15" s="3">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="AM15" s="2">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="AN15" s="1">
-        <v>6.0639999999999645</v>
+        <v>6.1</v>
       </c>
       <c r="AO15" s="2">
-        <v>6.7130000000000791</v>
+        <v>6.7</v>
       </c>
       <c r="AP15" s="3">
-        <v>2.5979999999999563</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15" s="2">
-        <v>1.08400000000006</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>4.9799999999999045</v>
+        <v>5</v>
       </c>
       <c r="AS15" s="2">
-        <v>3.6820000000000164</v>
+        <v>3.7</v>
       </c>
       <c r="AT15" s="1">
-        <v>3.4640000000000555</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" s="2">
-        <v>6.92999999999995</v>
+        <v>6.9</v>
       </c>
       <c r="AV15" s="1">
-        <v>3.8980000000000246</v>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="C16" s="2">
-        <v>2.5990000000000464</v>
+        <v>2.6</v>
       </c>
       <c r="D16" s="1">
-        <v>8.2290000000000418</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E16" s="2">
-        <v>15.37399999999991</v>
+        <v>15.4</v>
       </c>
       <c r="F16" s="3">
-        <v>2.8150000000000546</v>
+        <v>2.8</v>
       </c>
       <c r="G16" s="2">
-        <v>4.1140000000000327</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>7.3629999999999427</v>
+        <v>7.4</v>
       </c>
       <c r="I16" s="2">
-        <v>14.29200000000003</v>
+        <v>14.3</v>
       </c>
       <c r="J16" s="1">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="K16" s="2">
-        <v>10.177000000000021</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L16" s="1">
-        <v>8.8790000000000191</v>
+        <v>8.9</v>
       </c>
       <c r="M16" s="2">
-        <v>6.4969999999999573</v>
+        <v>6.5</v>
       </c>
       <c r="N16" s="3">
-        <v>1.2990000000000919</v>
+        <v>1.3</v>
       </c>
       <c r="O16" s="2">
-        <v>6.9289999999999736</v>
+        <v>6.9</v>
       </c>
       <c r="P16" s="1">
-        <v>4.76400000000001</v>
+        <v>4.8</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.9499999999999318</v>
+        <v>1.9</v>
       </c>
       <c r="R16" s="3">
-        <v>0.21600000000000819</v>
+        <v>0.2</v>
       </c>
       <c r="S16" s="2">
-        <v>6.7130000000000791</v>
+        <v>6.7</v>
       </c>
       <c r="T16" s="1">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
       </c>
       <c r="U16" s="2">
-        <v>10.827999999999975</v>
+        <v>10.8</v>
       </c>
       <c r="V16" s="1">
-        <v>5.6299999999999955</v>
+        <v>5.6</v>
       </c>
       <c r="W16" s="2">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X16" s="3">
-        <v>0.21600000000000819</v>
+        <v>0.2</v>
       </c>
       <c r="Y16" s="2">
-        <v>5.84800000000007</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="AA16" s="2">
-        <v>3.4639999999999418</v>
+        <v>3.5</v>
       </c>
       <c r="AB16" s="1">
-        <v>3.0320000000000391</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="2">
-        <v>5.84699999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AD16" s="1">
-        <v>10.826999999999998</v>
+        <v>10.8</v>
       </c>
       <c r="AE16" s="2">
-        <v>4.1140000000000327</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF16" s="3">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="AG16" s="2">
-        <v>2.5990000000000464</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>2.6</v>
       </c>
       <c r="AI16" s="2">
-        <v>7.1460000000000719</v>
+        <v>7.1</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2.5979999999999563</v>
+        <v>2.6</v>
       </c>
       <c r="AK16" s="2">
-        <v>3.4650000000000318</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>12.343999999999937</v>
+        <v>3.5</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>12.3</v>
       </c>
       <c r="AM16" s="2">
-        <v>4.76400000000001</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>1.0830000000000837</v>
+        <v>4.8</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO16" s="2">
-        <v>1.5149999999999864</v>
+        <v>1.5</v>
       </c>
       <c r="AP16" s="3">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16" s="2">
-        <v>1.5160000000000764</v>
+        <v>1.5</v>
       </c>
       <c r="AR16" s="1">
-        <v>12.992999999999938</v>
+        <v>13</v>
       </c>
       <c r="AS16" s="2">
-        <v>2.5990000000000464</v>
+        <v>2.6</v>
       </c>
       <c r="AT16" s="3">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" s="2">
-        <v>7.7949999999999591</v>
+        <v>7.8</v>
       </c>
       <c r="AV16" s="3">
-        <v>2.5990000000000464</v>
+        <v>2.6</v>
       </c>
       <c r="AW16" s="2">
-        <v>2.1660000000000537</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AX16" s="3">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AY16" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.6300000000001091</v>
+        <v>5.6</v>
       </c>
       <c r="BA16" s="2">
-        <v>5.1979999999998654</v>
+        <v>5.2</v>
       </c>
       <c r="BB16" s="1">
-        <v>13.426000000000158</v>
+        <v>13.4</v>
       </c>
       <c r="BC16" s="2">
-        <v>5.4139999999999873</v>
+        <v>5.4</v>
       </c>
       <c r="BD16" s="3">
-        <v>0.64999999999986358</v>
+        <v>0.6</v>
       </c>
       <c r="BE16" s="2">
-        <v>1.0820000000001073</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>6.2799999999999727</v>
+        <v>6.3</v>
       </c>
       <c r="BG16" s="2">
-        <v>8.4459999999999127</v>
+        <v>8.4</v>
       </c>
       <c r="BH16" s="1">
-        <v>6.9300000000000637</v>
+        <v>6.9</v>
       </c>
       <c r="BI16" s="2">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.8970000000001619</v>
+        <v>3.9</v>
       </c>
       <c r="BK16" s="2">
-        <v>13.209999999999809</v>
+        <v>13.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>6.2810000000001764</v>
+        <v>6.3</v>
       </c>
       <c r="BM16" s="2">
-        <v>17.759000000000015</v>
+        <v>17.8</v>
       </c>
       <c r="BN16" s="3">
-        <v>3.4639999999999418</v>
+        <v>3.5</v>
       </c>
       <c r="BO16" s="2">
-        <v>1.5170000000000528</v>
-      </c>
-      <c r="BP16" s="1">
-        <v>7.1459999999999582</v>
+        <v>1.5</v>
+      </c>
+      <c r="BP16" s="3">
+        <v>7.1</v>
       </c>
       <c r="BQ16" s="2">
-        <v>1.0829999999998563</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>1.5160000000000764</v>
+        <v>1.5</v>
       </c>
       <c r="BS16" s="2">
-        <v>6.7129999999999654</v>
+        <v>6.7</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.4460000000001401</v>
+        <v>8.4</v>
       </c>
       <c r="BU16" s="2">
-        <v>19.923999999999978</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="BV16" s="1">
-        <v>0.41699999999991633</v>
+        <v>0.4</v>
       </c>
       <c r="BW16" s="2">
-        <v>13.118999999999915</v>
+        <v>13.1</v>
       </c>
       <c r="BX16" s="3">
-        <v>8.4460000000001401</v>
+        <v>8.4</v>
       </c>
       <c r="BY16" s="2">
-        <v>2.5979999999999563</v>
+        <v>2.6</v>
       </c>
       <c r="BZ16" s="3">
-        <v>3.4659999999998945</v>
+        <v>3.5</v>
       </c>
       <c r="CA16" s="2">
-        <v>16.025000000000091</v>
-      </c>
-      <c r="CB16" s="1">
-        <v>11.261999999999944</v>
+        <v>16</v>
+      </c>
+      <c r="CB16" s="3">
+        <v>11.3</v>
       </c>
       <c r="CC16" s="2">
-        <v>2.1649999999999636</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.829000000000178</v>
+        <v>10.8</v>
       </c>
     </row>
-    <row r="17" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2.1659999999999968</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C17" s="2">
-        <v>5.1980000000000075</v>
+        <v>5.2</v>
       </c>
       <c r="D17" s="1">
-        <v>3.6810000000000116</v>
+        <v>3.7</v>
       </c>
       <c r="E17" s="2">
-        <v>13.644000000000005</v>
+        <v>13.6</v>
       </c>
       <c r="F17" s="1">
-        <v>2.164999999999992</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G17" s="2">
-        <v>5.4139999999999873</v>
+        <v>5.4</v>
       </c>
       <c r="H17" s="1">
-        <v>6.0649999999999977</v>
+        <v>6.1</v>
       </c>
       <c r="I17" s="2">
-        <v>3.2480000000000189</v>
+        <v>3.2</v>
       </c>
       <c r="J17" s="3">
-        <v>3.0319999999999823</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2">
-        <v>11.478000000000009</v>
+        <v>24.3</v>
       </c>
       <c r="L17" s="3">
-        <v>0.43299999999999272</v>
+        <v>1.5</v>
       </c>
       <c r="M17" s="2">
-        <v>4.5470000000000255</v>
+        <v>4.5</v>
       </c>
       <c r="N17" s="3">
-        <v>0.21699999999998454</v>
+        <v>0.7</v>
       </c>
       <c r="O17" s="2">
-        <v>7.5790000000000077</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P17" s="1">
-        <v>1.5159999999999627</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" s="2">
-        <v>4.5480000000000018</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0.65000000000003411</v>
+        <v>4.3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="S17" s="2">
-        <v>2.1650000000000205</v>
+        <v>6.1</v>
       </c>
       <c r="T17" s="1">
-        <v>2.3819999999999482</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U17" s="2">
-        <v>4.3320000000000505</v>
+        <v>7.6</v>
       </c>
       <c r="V17" s="1">
-        <v>2.1649999999999636</v>
+        <v>2.8</v>
       </c>
       <c r="W17" s="2">
-        <v>6.0629999999999882</v>
-      </c>
-      <c r="X17" s="1">
-        <v>2.1659999999999968</v>
+        <v>4.8</v>
+      </c>
+      <c r="X17" s="3">
+        <v>3.7</v>
       </c>
       <c r="Y17" s="2">
-        <v>7.5800000000000409</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z17" s="1">
-        <v>2.8149999999999977</v>
+        <v>0.9</v>
       </c>
       <c r="AA17" s="2">
-        <v>4.7649999999999864</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>3.6809999999999832</v>
+        <v>12.3</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC17" s="2">
-        <v>4.1140000000000327</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.8669999999999618</v>
+        <v>1.7</v>
       </c>
       <c r="AE17" s="2">
-        <v>12.343999999999994</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>1.0820000000000505</v>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>3</v>
       </c>
       <c r="AG17" s="2">
-        <v>8.228999999999985</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>1.7330000000000041</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0.4</v>
       </c>
       <c r="AI17" s="2">
-        <v>4.9799999999999613</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>3.0330000000000155</v>
+        <v>7.1</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>3</v>
       </c>
       <c r="AK17" s="2">
-        <v>2.1650000000000205</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>0.43299999999999272</v>
+        <v>3.9</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>1.5</v>
       </c>
       <c r="AM17" s="2">
-        <v>7.1469999999999914</v>
+        <v>4.8</v>
       </c>
       <c r="AN17" s="1">
-        <v>3.0310000000000059</v>
+        <v>3.7</v>
       </c>
       <c r="AO17" s="2">
-        <v>3.8980000000000246</v>
+        <v>6.7</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.5169999999999959</v>
+        <v>4.3</v>
       </c>
       <c r="AQ17" s="2">
-        <v>4.7639999999999532</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>3.68100000000004</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>4.5</v>
       </c>
       <c r="AS17" s="2">
-        <v>6.7129999999999654</v>
+        <v>7.6</v>
       </c>
       <c r="AT17" s="1">
-        <v>4.3319999999999936</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.1140000000000327</v>
+        <v>2.8</v>
       </c>
       <c r="AV17" s="1">
-        <v>4.5480000000000018</v>
+        <v>10.4</v>
       </c>
       <c r="AW17" s="2">
-        <v>7.5790000000000077</v>
+        <v>1.7</v>
       </c>
       <c r="AX17" s="1">
-        <v>2.1649999999999636</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY17" s="2">
-        <v>2.8160000000000309</v>
+        <v>6.9</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.394999999999982</v>
+        <v>1.7</v>
       </c>
       <c r="BA17" s="2">
-        <v>1.7309999999999945</v>
-      </c>
-      <c r="BB17" s="1">
-        <v>1.0840000000000032</v>
+        <v>1.5</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>0.2</v>
       </c>
       <c r="BC17" s="2">
-        <v>6.9290000000000305</v>
+        <v>2.6</v>
       </c>
       <c r="BD17" s="1">
-        <v>1.7330000000000041</v>
+        <v>1.3</v>
       </c>
       <c r="BE17" s="2">
-        <v>1.5149999999999864</v>
-      </c>
-      <c r="BF17" s="3">
-        <v>0.21699999999998454</v>
+        <v>5.2</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>2.8</v>
       </c>
       <c r="BG17" s="2">
-        <v>2.5989999999999895</v>
+        <v>4.3</v>
       </c>
       <c r="BH17" s="1">
-        <v>1.299000000000035</v>
+        <v>0.9</v>
       </c>
       <c r="BI17" s="2">
-        <v>5.1970000000000027</v>
+        <v>12.3</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.8149999999999977</v>
+        <v>0.7</v>
       </c>
       <c r="BK17" s="2">
-        <v>4.3319999999999936</v>
+        <v>7.1</v>
       </c>
       <c r="BL17" s="1">
-        <v>0.86599999999998545</v>
+        <v>2.6</v>
       </c>
       <c r="BM17" s="2">
-        <v>12.343999999999994</v>
-      </c>
-      <c r="BN17" s="1">
-        <v>0.65000000000003411</v>
+        <v>3.7</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>7.4</v>
       </c>
       <c r="BO17" s="2">
-        <v>7.1449999999999818</v>
+        <v>5.2</v>
       </c>
       <c r="BP17" s="1">
-        <v>2.5989999999999895</v>
+        <v>2.8</v>
       </c>
       <c r="BQ17" s="2">
         <v>3.6809999999999832</v>
@@ -3875,610 +4339,622 @@
         <v>2.8149999999999977</v>
       </c>
     </row>
-    <row r="18" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="C18" s="2">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="D18" s="3">
-        <v>2.1649999999999636</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>4.3310000000000173</v>
+        <v>4.3</v>
       </c>
       <c r="F18" s="1">
-        <v>9.3129999999999882</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G18" s="2">
-        <v>2.3810000000000855</v>
+        <v>2.4</v>
       </c>
       <c r="H18" s="1">
-        <v>3.4660000000000082</v>
+        <v>3.5</v>
       </c>
       <c r="I18" s="2">
-        <v>64.100999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="J18" s="3">
-        <v>0.21699999999998454</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="2">
-        <v>4.3310000000000173</v>
+        <v>4.3</v>
       </c>
       <c r="L18" s="1">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="M18" s="2">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="N18" s="1">
-        <v>6.4960000000000946</v>
+        <v>6.5</v>
       </c>
       <c r="O18" s="2">
-        <v>13.426999999999907</v>
-      </c>
-      <c r="P18" s="1">
-        <v>6.7130000000000791</v>
+        <v>13.4</v>
+      </c>
+      <c r="P18" s="3">
+        <v>6.7</v>
       </c>
       <c r="Q18" s="2">
-        <v>4.9809999999999945</v>
+        <v>5</v>
       </c>
       <c r="R18" s="1">
-        <v>7.7959999999999354</v>
+        <v>7.8</v>
       </c>
       <c r="S18" s="2">
-        <v>3.5740000000000691</v>
+        <v>3.6</v>
       </c>
       <c r="T18" s="1">
-        <v>5.8460000000000036</v>
+        <v>5.8</v>
       </c>
       <c r="U18" s="2">
-        <v>3.4649999999999181</v>
+        <v>3.5</v>
       </c>
       <c r="V18" s="1">
-        <v>9.3120000000000118</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="W18" s="2">
-        <v>12.343000000000075</v>
+        <v>12.3</v>
       </c>
       <c r="X18" s="3">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="Y18" s="2">
-        <v>3.2480000000000473</v>
+        <v>3.2</v>
       </c>
       <c r="Z18" s="1">
-        <v>4.5480000000000018</v>
+        <v>4.5</v>
       </c>
       <c r="AA18" s="2">
-        <v>6.4959999999999809</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" s="3">
-        <v>3.0319999999999254</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="2">
-        <v>2.8150000000000546</v>
+        <v>2.8</v>
       </c>
       <c r="AD18" s="1">
-        <v>6.7129999999999654</v>
+        <v>6.7</v>
       </c>
       <c r="AE18" s="2">
-        <v>5.84699999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.9800000000000182</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="2">
-        <v>6.7140000000000555</v>
+        <v>6.7</v>
       </c>
       <c r="AH18" s="1">
-        <v>3.4650000000000318</v>
+        <v>3.5</v>
       </c>
       <c r="AI18" s="2">
-        <v>7.5789999999999509</v>
+        <v>7.6</v>
       </c>
       <c r="AJ18" s="1">
-        <v>3.8980000000000246</v>
+        <v>3.9</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2.5990000000000464</v>
+        <v>2.6</v>
       </c>
       <c r="C19" s="2">
-        <v>4.9809999999999945</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>0.43299999999999272</v>
+        <v>0.4</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9800000000000182</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>5.84699999999998</v>
+        <v>5.8</v>
       </c>
       <c r="H19" s="1">
-        <v>0.64900000000000091</v>
+        <v>0.6</v>
       </c>
       <c r="I19" s="2">
-        <v>2.1660000000000537</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="K19" s="2">
-        <v>3.68100000000004</v>
-      </c>
-      <c r="L19" s="1">
-        <v>3.0319999999999254</v>
+        <v>3.7</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
       </c>
       <c r="M19" s="2">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
       <c r="N19" s="1">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="O19" s="2">
-        <v>3.8980000000000246</v>
+        <v>3.9</v>
       </c>
       <c r="P19" s="1">
-        <v>3.4649999999999181</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" s="2">
-        <v>4.3300000000000409</v>
+        <v>4.3</v>
       </c>
       <c r="R19" s="1">
-        <v>0.8669999999999618</v>
+        <v>0.9</v>
       </c>
       <c r="S19" s="2">
-        <v>16.673000000000002</v>
+        <v>16.7</v>
       </c>
       <c r="T19" s="1">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
       <c r="U19" s="2">
-        <v>3.0319999999999254</v>
+        <v>3</v>
       </c>
       <c r="V19" s="1">
-        <v>3.4660000000000082</v>
+        <v>3.5</v>
       </c>
       <c r="W19" s="2">
-        <v>2.5970000000000937</v>
+        <v>2.6</v>
       </c>
       <c r="X19" s="1">
-        <v>1.5169999999999391</v>
+        <v>1.5</v>
       </c>
       <c r="Y19" s="2">
-        <v>13.643000000000029</v>
+        <v>13.6</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.64900000000000091</v>
+        <v>0.6</v>
       </c>
       <c r="AA19" s="2">
-        <v>12.992999999999938</v>
+        <v>13</v>
       </c>
       <c r="AB19" s="1">
-        <v>5.84800000000007</v>
+        <v>5.8</v>
       </c>
       <c r="AC19" s="2">
-        <v>11.043000000000006</v>
+        <v>11</v>
       </c>
       <c r="AD19" s="3">
-        <v>3.2479999999999336</v>
+        <v>3.2</v>
       </c>
       <c r="AE19" s="2">
-        <v>10.177999999999997</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>1.0830000000000837</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG19" s="2">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="AH19" s="1">
-        <v>2.8149999999999409</v>
+        <v>2.8</v>
       </c>
       <c r="AI19" s="2">
-        <v>2.1660000000000537</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="AK19" s="2">
-        <v>1.0819999999999936</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>4.5480000000000018</v>
+        <v>4.5</v>
       </c>
       <c r="AM19" s="2">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
       <c r="AN19" s="1">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="AO19" s="2">
-        <v>6.92999999999995</v>
+        <v>6.9</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="AQ19" s="2">
-        <v>5.8470000000000937</v>
+        <v>5.8</v>
       </c>
       <c r="AR19" s="1">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="AS19" s="2">
-        <v>3.0320000000000391</v>
+        <v>3</v>
       </c>
       <c r="AT19" s="1">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU19" s="2">
-        <v>2.1649999999999636</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>3.2490000000000236</v>
+        <v>3.2</v>
       </c>
       <c r="AW19" s="2">
-        <v>34.648000000000025</v>
+        <v>34.6</v>
       </c>
       <c r="AX19" s="1">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY19" s="2">
-        <v>4.5470000000000255</v>
+        <v>4.5</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="BA19" s="2">
-        <v>3.4650000000000318</v>
+        <v>3.5</v>
       </c>
       <c r="BB19" s="3">
-        <v>1.08299999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC19" s="2">
-        <v>2.1649999999999636</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BD19" s="1">
-        <v>0.86700000000007549</v>
+        <v>0.9</v>
       </c>
       <c r="BE19" s="2">
-        <v>10.61099999999999</v>
+        <v>10.6</v>
       </c>
       <c r="BF19" s="3">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="BG19" s="2">
-        <v>1.9480000000000928</v>
-      </c>
-      <c r="BH19" s="1">
-        <v>4.9809999999999945</v>
+        <v>1.9</v>
+      </c>
+      <c r="BH19" s="3">
+        <v>5</v>
       </c>
       <c r="BI19" s="2">
-        <v>9.3119999999998981</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.8150000000000546</v>
+        <v>2.8</v>
       </c>
       <c r="BK19" s="2">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BL19" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="BM19" s="2">
-        <v>2.1649999999999636</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BN19" s="1">
-        <v>2.5990000000001601</v>
+        <v>2.6</v>
       </c>
       <c r="BO19" s="2">
-        <v>3.0319999999999254</v>
+        <v>3</v>
       </c>
       <c r="BP19" s="1">
-        <v>2.8150000000000546</v>
+        <v>2.8</v>
       </c>
       <c r="BQ19" s="2">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="BR19" s="1">
-        <v>1.5150000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BS19" s="2">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BT19" s="3">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="BU19" s="2">
-        <v>1.7319999999999709</v>
-      </c>
-      <c r="BV19" s="1">
-        <v>0.6490000000001146</v>
+        <v>1.7</v>
+      </c>
+      <c r="BV19" s="3">
+        <v>0.6</v>
       </c>
       <c r="BW19" s="2">
-        <v>3.0319999999999254</v>
+        <v>3</v>
       </c>
       <c r="BX19" s="1">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="BY19" s="2">
-        <v>1.5150000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="CA19" s="2">
-        <v>1.5169999999998254</v>
+        <v>1.5</v>
       </c>
       <c r="CB19" s="1">
-        <v>1.7319999999999709</v>
+        <v>1.7</v>
       </c>
       <c r="CC19" s="2">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="CD19" s="3">
-        <v>3.8979999999999109</v>
+        <v>3.9</v>
       </c>
       <c r="CE19" s="2">
-        <v>1.7330000000001746</v>
+        <v>1.7</v>
       </c>
       <c r="CF19" s="1">
-        <v>7.1459999999999582</v>
+        <v>7.1</v>
       </c>
       <c r="CG19" s="2">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="CH19" s="1">
-        <v>1.515999999999849</v>
+        <v>1.5</v>
       </c>
       <c r="CI19" s="2">
-        <v>11.262000000000171</v>
-      </c>
-      <c r="CJ19" s="1">
-        <v>3.6809999999998126</v>
+        <v>11.3</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>3.7</v>
       </c>
       <c r="CK19" s="2">
-        <v>2.3830000000000382</v>
+        <v>2.4</v>
       </c>
       <c r="CL19" s="1">
-        <v>1.0820000000001073</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CM19" s="2">
-        <v>4.9809999999999945</v>
+        <v>5</v>
       </c>
       <c r="CN19" s="3">
-        <v>1.515999999999849</v>
+        <v>1.5</v>
       </c>
       <c r="CO19" s="2">
-        <v>1.5160000000000764</v>
+        <v>1.5</v>
       </c>
       <c r="CP19" s="1">
-        <v>1.5160000000000764</v>
+        <v>1.5</v>
       </c>
       <c r="CQ19" s="2">
-        <v>7.1469999999999345</v>
+        <v>7.1</v>
       </c>
       <c r="CR19" s="1">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="CS19" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="CT19" s="1">
-        <v>9.52800000000002</v>
+        <v>9.5</v>
       </c>
       <c r="CU19" s="2">
-        <v>8.8789999999999054</v>
+        <v>8.9</v>
       </c>
       <c r="CV19" s="1">
-        <v>1.08400000000006</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CW19" s="2">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="CX19" s="3">
-        <v>1.9489999999998417</v>
+        <v>1.9</v>
       </c>
       <c r="CY19" s="2">
-        <v>1.0830000000000837</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CZ19" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="DA19" s="2">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="DB19" s="1">
-        <v>1.0830000000000837</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="DC19" s="2">
-        <v>3.68100000000004</v>
+        <v>3.7</v>
       </c>
       <c r="DD19" s="1">
-        <v>3.140999999999849</v>
+        <v>3.1</v>
       </c>
       <c r="DE19" s="2">
-        <v>7.5800000000001546</v>
+        <v>7.6</v>
       </c>
       <c r="DF19" s="1">
-        <v>5.4130000000000109</v>
+        <v>5.4</v>
       </c>
       <c r="DG19" s="2">
-        <v>7.5799999999999272</v>
+        <v>7.6</v>
       </c>
       <c r="DH19" s="1">
-        <v>4.1150000000000091</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="DI19" s="2">
-        <v>3.4649999999999181</v>
+        <v>3.5</v>
       </c>
       <c r="DJ19" s="1">
-        <v>7.3630000000000564</v>
+        <v>7.4</v>
       </c>
       <c r="DK19" s="2">
-        <v>2.3820000000000618</v>
+        <v>2.4</v>
       </c>
       <c r="DL19" s="1">
-        <v>13.211000000000013</v>
+        <v>13.2</v>
+      </c>
+      <c r="DM19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="DN19" s="3">
+        <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4.0470000000000255</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>7.6870000000000118</v>
+        <v>7.7</v>
       </c>
       <c r="D20" s="1">
-        <v>0.81000000000000227</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="2">
-        <v>4.2469999999999573</v>
+        <v>4.2</v>
       </c>
       <c r="F20" s="1">
-        <v>1.41700000000003</v>
+        <v>1.4</v>
       </c>
       <c r="G20" s="2">
-        <v>5.2620000000000005</v>
+        <v>5.3</v>
       </c>
       <c r="H20" s="1">
-        <v>8.7019999999999982</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I20" s="2">
-        <v>3.4399999999999977</v>
+        <v>3.4</v>
       </c>
       <c r="J20" s="1">
-        <v>7.2860000000000014</v>
+        <v>7.3</v>
       </c>
       <c r="K20" s="2">
-        <v>2.8340000000000032</v>
+        <v>2.8</v>
       </c>
       <c r="L20" s="1">
-        <v>14.572000000000003</v>
+        <v>14.6</v>
       </c>
       <c r="M20" s="2">
-        <v>7.6899999999999409</v>
+        <v>7.7</v>
       </c>
       <c r="N20" s="1">
-        <v>3.6430000000000291</v>
+        <v>3.6</v>
       </c>
       <c r="O20" s="2">
-        <v>3.2390000000000327</v>
+        <v>3.2</v>
       </c>
       <c r="P20" s="1">
-        <v>2.2259999999999991</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q20" s="2">
-        <v>2.83299999999997</v>
+        <v>2.8</v>
       </c>
       <c r="R20" s="3">
-        <v>1.0120000000000573</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
-        <v>6.4759999999999991</v>
+        <v>6.5</v>
       </c>
       <c r="T20" s="1">
-        <v>7.6899999999999409</v>
+        <v>7.7</v>
       </c>
       <c r="U20" s="2">
-        <v>1.2140000000000555</v>
+        <v>1.2</v>
       </c>
       <c r="V20" s="1">
-        <v>4.6559999999999491</v>
+        <v>4.7</v>
       </c>
       <c r="W20" s="2">
-        <v>2.6299999999999955</v>
+        <v>2.6</v>
       </c>
       <c r="X20" s="1">
-        <v>5.0600000000000591</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y20" s="2">
-        <v>2.83299999999997</v>
+        <v>2.8</v>
       </c>
       <c r="Z20" s="1">
-        <v>6.4759999999999991</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" s="2">
-        <v>7.6899999999999409</v>
+        <v>7.7</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.60700000000008458</v>
+        <v>0.6</v>
       </c>
       <c r="AC20" s="2">
-        <v>2.0249999999999773</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.40399999999999636</v>
+        <v>0.4</v>
       </c>
       <c r="AE20" s="2">
-        <v>6.6789999999999736</v>
+        <v>6.7</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.961999999999989</v>
+        <v>14</v>
       </c>
       <c r="AG20" s="2">
-        <v>6.6760000000000446</v>
+        <v>6.7</v>
       </c>
       <c r="AH20" s="3">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="2">
-        <v>1.0120000000000573</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1">
-        <v>12.339999999999918</v>
+        <v>12.3</v>
       </c>
       <c r="AK20" s="2">
-        <v>1.8210000000000264</v>
+        <v>1.8</v>
       </c>
       <c r="AL20" s="1">
-        <v>8.4959999999999809</v>
+        <v>8.5</v>
       </c>
       <c r="AM20" s="2">
-        <v>3.6410000000000764</v>
+        <v>3.6</v>
       </c>
       <c r="AN20" s="3">
-        <v>3.4389999999999645</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" s="2">
-        <v>7.2830000000000155</v>
+        <v>7.3</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.6190000000000282</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20" s="2">
-        <v>4.2469999999999573</v>
+        <v>4.2</v>
       </c>
       <c r="AR20" s="1">
-        <v>3.2369999999999663</v>
+        <v>3.2</v>
       </c>
       <c r="AS20" s="2">
-        <v>5.8670000000000755</v>
+        <v>5.9</v>
       </c>
       <c r="AT20" s="1">
-        <v>2.4269999999999072</v>
+        <v>2.4</v>
       </c>
       <c r="AU20" s="2">
-        <v>3.0350000000000819</v>
+        <v>3</v>
       </c>
       <c r="AV20" s="1">
-        <v>4.8539999999999281</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AW20" s="2">
         <v>1.6190000000000282</v>
@@ -4487,1548 +4963,2386 @@
         <v>7.0800000000000409</v>
       </c>
     </row>
-    <row r="21" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>8.6989999999999554</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C21" s="2">
-        <v>12.137000000000057</v>
+        <v>12.1</v>
       </c>
       <c r="D21" s="1">
-        <v>5.6649999999999636</v>
+        <v>5.7</v>
       </c>
       <c r="E21" s="2">
-        <v>3.6410000000000764</v>
+        <v>3.6</v>
       </c>
       <c r="F21" s="1">
-        <v>6.8779999999999291</v>
+        <v>6.9</v>
       </c>
       <c r="G21" s="2">
-        <v>12.947000000000003</v>
+        <v>12.9</v>
       </c>
       <c r="H21" s="3">
-        <v>0.40399999999999636</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="2">
-        <v>1.2140000000000555</v>
+        <v>1.2</v>
       </c>
       <c r="J21" s="1">
-        <v>18.004999999999995</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2">
-        <v>4.0459999999999354</v>
+        <v>4</v>
       </c>
       <c r="L21" s="1">
-        <v>9.9120000000000346</v>
+        <v>9.9</v>
       </c>
       <c r="M21" s="2">
-        <v>5.0589999999999691</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>3.6420000000000528</v>
+        <v>3.6</v>
       </c>
       <c r="O21" s="2">
-        <v>12.547000000000025</v>
+        <v>12.5</v>
       </c>
       <c r="P21" s="1">
-        <v>5.4639999999999418</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" s="2">
-        <v>9.3089999999999691</v>
-      </c>
-      <c r="R21" s="1">
-        <v>9.1040000000000418</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R21" s="3">
+        <v>9.1</v>
       </c>
       <c r="S21" s="2">
-        <v>4.2469999999999573</v>
+        <v>4.2</v>
       </c>
       <c r="T21" s="1">
-        <v>13.149000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="U21" s="2">
-        <v>4.2490000000000236</v>
+        <v>4.2</v>
       </c>
       <c r="V21" s="1">
-        <v>4.65300000000002</v>
+        <v>4.7</v>
       </c>
       <c r="W21" s="2">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
-        <v>5.8659999999999854</v>
+        <v>5.9</v>
       </c>
       <c r="Y21" s="2">
-        <v>4.4510000000000218</v>
+        <v>4.5</v>
       </c>
       <c r="Z21" s="1">
-        <v>6.47300000000007</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" s="2">
-        <v>6.6759999999999309</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>3.8440000000000509</v>
+        <v>6.7</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>3.8</v>
       </c>
       <c r="AC21" s="2">
-        <v>6.6749999999999545</v>
+        <v>6.7</v>
       </c>
       <c r="AD21" s="1">
-        <v>6.8780000000000427</v>
+        <v>6.9</v>
       </c>
       <c r="AE21" s="2">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.0230000000000246</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="2">
-        <v>2.6299999999999955</v>
+        <v>2.6</v>
       </c>
       <c r="AH21" s="1">
-        <v>3.2369999999999663</v>
+        <v>3.2</v>
       </c>
       <c r="AI21" s="2">
-        <v>15.375</v>
+        <v>15.4</v>
       </c>
       <c r="AJ21" s="3">
-        <v>1.41700000000003</v>
+        <v>1.4</v>
       </c>
       <c r="AK21" s="2">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
-        <v>3.6440000000000055</v>
+        <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>7.4849999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C22" s="2">
-        <v>3.6410000000000764</v>
+        <v>3.6</v>
       </c>
       <c r="D22" s="3">
-        <v>5.8669999999999618</v>
+        <v>5.9</v>
       </c>
       <c r="E22" s="2">
-        <v>1.4160000000000537</v>
+        <v>1.4</v>
       </c>
       <c r="F22" s="1">
-        <v>7.6869999999998981</v>
+        <v>7.7</v>
       </c>
       <c r="G22" s="2">
-        <v>3.23700000000008</v>
+        <v>3.2</v>
       </c>
       <c r="H22" s="1">
-        <v>6.8779999999999291</v>
+        <v>6.9</v>
       </c>
       <c r="I22" s="2">
-        <v>8.6980000000000928</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J22" s="1">
-        <v>6.2709999999999582</v>
+        <v>6.3</v>
       </c>
       <c r="K22" s="2">
-        <v>6.06899999999996</v>
+        <v>6.1</v>
       </c>
       <c r="L22" s="3">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1.2130000000001928</v>
+        <v>1.2</v>
       </c>
       <c r="N22" s="1">
-        <v>1.41599999999994</v>
+        <v>1.4</v>
       </c>
       <c r="O22" s="2">
-        <v>4.2490000000000236</v>
+        <v>4.2</v>
       </c>
       <c r="P22" s="3">
-        <v>6.4729999999999563</v>
+        <v>6.5</v>
       </c>
       <c r="Q22" s="2">
-        <v>5.2590000000000146</v>
+        <v>5.3</v>
       </c>
       <c r="R22" s="3">
-        <v>4.65300000000002</v>
+        <v>4.7</v>
       </c>
       <c r="S22" s="2">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>2.6289999999999054</v>
+        <v>2.6</v>
       </c>
       <c r="U22" s="2">
-        <v>9.1050000000000182</v>
+        <v>9.1</v>
       </c>
       <c r="V22" s="3">
-        <v>6.8810000000000855</v>
+        <v>6.9</v>
       </c>
       <c r="W22" s="2">
-        <v>3.6420000000000528</v>
+        <v>3.6</v>
       </c>
       <c r="X22" s="1">
-        <v>19.421000000000049</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Y22" s="2">
-        <v>1.2139999999999418</v>
+        <v>1.2</v>
       </c>
       <c r="Z22" s="1">
-        <v>4.0460000000000491</v>
+        <v>4</v>
       </c>
       <c r="AA22" s="2">
-        <v>2.8309999999999036</v>
+        <v>2.8</v>
       </c>
       <c r="AB22" s="1">
-        <v>2.0239999999998872</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="2">
-        <v>5.2590000000000146</v>
+        <v>5.3</v>
       </c>
       <c r="AD22" s="1">
-        <v>4.0460000000000491</v>
+        <v>4</v>
       </c>
       <c r="AE22" s="2">
-        <v>1.6190000000001419</v>
+        <v>1.6</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.0099999999999909</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="2">
-        <v>8.4959999999998672</v>
+        <v>8.5</v>
       </c>
       <c r="AH22" s="1">
-        <v>13.95900000000006</v>
+        <v>14</v>
       </c>
       <c r="AI22" s="2">
-        <v>8.4970000000000709</v>
+        <v>8.5</v>
       </c>
       <c r="AJ22" s="3">
-        <v>1.0099999999999909</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="2">
-        <v>2.4279999999998836</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>4.65300000000002</v>
+        <v>2.4</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>4.7</v>
       </c>
       <c r="AM22" s="2">
-        <v>7.6880000000001019</v>
+        <v>7.7</v>
       </c>
       <c r="AN22" s="3">
-        <v>2.0219999999999345</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="2">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.6410000000000764</v>
+        <v>3.6</v>
       </c>
       <c r="AQ22" s="2">
-        <v>6.6749999999999545</v>
+        <v>6.7</v>
       </c>
       <c r="AR22" s="3">
-        <v>4.4510000000000218</v>
+        <v>4.5</v>
       </c>
       <c r="AS22" s="2">
-        <v>3.6410000000000764</v>
+        <v>3.6</v>
       </c>
       <c r="AT22" s="1">
-        <v>5.8669999999999618</v>
+        <v>5.9</v>
       </c>
       <c r="AU22" s="2">
-        <v>6.4729999999999563</v>
+        <v>6.5</v>
       </c>
       <c r="AV22" s="3">
-        <v>5.6639999999999873</v>
+        <v>5.7</v>
       </c>
       <c r="AW22" s="2">
-        <v>1.6189999999999145</v>
+        <v>1.6</v>
       </c>
       <c r="AX22" s="1">
-        <v>7.484000000000151</v>
+        <v>7.5</v>
       </c>
       <c r="AY22" s="2">
-        <v>3.2369999999998527</v>
+        <v>3.2</v>
       </c>
       <c r="AZ22" s="3">
-        <v>0.60700000000019827</v>
+        <v>0.6</v>
       </c>
       <c r="BA22" s="2">
-        <v>6.4729999999999563</v>
+        <v>6.5</v>
       </c>
       <c r="BB22" s="1">
-        <v>3.0339999999998781</v>
+        <v>3</v>
       </c>
       <c r="BC22" s="2">
-        <v>4.0460000000000491</v>
+        <v>4</v>
       </c>
       <c r="BD22" s="3">
-        <v>4.4510000000000218</v>
+        <v>4.5</v>
       </c>
       <c r="BE22" s="2">
-        <v>8.4960000000000946</v>
-      </c>
-      <c r="BF22" s="1">
-        <v>0.6069999999999709</v>
+        <v>8.5</v>
+      </c>
+      <c r="BF22" s="3">
+        <v>0.6</v>
       </c>
       <c r="BG22" s="2">
-        <v>6.6749999999999545</v>
+        <v>6.7</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.60799999999994725</v>
+        <v>0.6</v>
       </c>
       <c r="BI22" s="2">
-        <v>1.8199999999999363</v>
+        <v>1.8</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.6420000000000528</v>
+        <v>3.6</v>
       </c>
       <c r="BK22" s="2">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="3">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="BM22" s="2">
-        <v>8.0920000000000982</v>
+        <v>8.1</v>
       </c>
       <c r="BN22" s="1">
-        <v>6.06899999999996</v>
+        <v>6.1</v>
       </c>
       <c r="BO22" s="2">
-        <v>8.2930000000001201</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BP22" s="1">
-        <v>10.115000000000009</v>
+        <v>10.1</v>
       </c>
       <c r="BQ22" s="2">
-        <v>8.3949999999999818</v>
+        <v>8.4</v>
       </c>
       <c r="BR22" s="1">
-        <v>10.519999999999982</v>
+        <v>10.5</v>
       </c>
       <c r="BS22" s="2">
-        <v>4.5509999999999309</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.4390000000000782</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4.2490000000000236</v>
+        <v>4.2</v>
       </c>
       <c r="C23" s="2">
-        <v>1.8199999999999932</v>
+        <v>1.8</v>
       </c>
       <c r="D23" s="1">
-        <v>1.4169999999999732</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="2">
-        <v>2.8320000000000505</v>
+        <v>2.8</v>
       </c>
       <c r="F23" s="1">
-        <v>1.2129999999999654</v>
+        <v>1.2</v>
       </c>
       <c r="G23" s="2">
-        <v>3.4399999999999977</v>
+        <v>3.4</v>
       </c>
       <c r="H23" s="1">
-        <v>1.0120000000000005</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>2.6290000000000191</v>
+        <v>2.6</v>
       </c>
       <c r="J23" s="1">
-        <v>5.8689999999999714</v>
+        <v>5.9</v>
       </c>
       <c r="K23" s="2">
-        <v>3.0360000000000014</v>
+        <v>3</v>
       </c>
       <c r="L23" s="1">
-        <v>0.60700000000002774</v>
+        <v>0.6</v>
       </c>
       <c r="M23" s="2">
-        <v>2.8340000000000032</v>
+        <v>2.8</v>
       </c>
       <c r="N23" s="1">
-        <v>3.8449999999999704</v>
+        <v>3.8</v>
       </c>
       <c r="O23" s="2">
-        <v>2.6299999999999955</v>
+        <v>2.6</v>
       </c>
       <c r="P23" s="3">
-        <v>4.0480000000000018</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="2">
-        <v>9.1080000000000041</v>
+        <v>9.1</v>
       </c>
       <c r="R23" s="1">
-        <v>2.2259999999999991</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S23" s="2">
-        <v>2.4289999999999736</v>
+        <v>2.4</v>
       </c>
       <c r="T23" s="1">
-        <v>5.8680000000000518</v>
+        <v>5.9</v>
       </c>
       <c r="U23" s="2">
-        <v>1.4180000000000064</v>
+        <v>1.4</v>
       </c>
       <c r="V23" s="1">
-        <v>2.2259999999999991</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W23" s="2">
-        <v>3.0359999999999445</v>
+        <v>3</v>
       </c>
       <c r="X23" s="1">
-        <v>1.0120000000000573</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="2">
-        <v>4.8559999999999945</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z23" s="1">
-        <v>2.4289999999999736</v>
+        <v>2.4</v>
       </c>
       <c r="AA23" s="2">
-        <v>3.0360000000000582</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1">
-        <v>3.8460000000000036</v>
+        <v>3.8</v>
       </c>
       <c r="AC23" s="2">
-        <v>5.4639999999999418</v>
+        <v>5.5</v>
       </c>
       <c r="AD23" s="1">
-        <v>1.8210000000000264</v>
+        <v>1.8</v>
       </c>
       <c r="AE23" s="2">
-        <v>2.0240000000000009</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="3">
-        <v>0.6069999999999709</v>
+        <v>0.6</v>
       </c>
       <c r="AG23" s="2">
-        <v>1.0120000000000573</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="1">
-        <v>2.0229999999999109</v>
+        <v>2</v>
       </c>
       <c r="AI23" s="2">
-        <v>2.2259999999999991</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AJ23" s="3">
-        <v>2.0250000000000909</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="2">
-        <v>3.0349999999999682</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="1">
-        <v>3.6430000000000291</v>
+        <v>3.6</v>
       </c>
       <c r="AM23" s="2">
-        <v>3.2379999999999427</v>
+        <v>3.2</v>
       </c>
       <c r="AN23" s="1">
-        <v>5.66700000000003</v>
+        <v>5.7</v>
       </c>
       <c r="AO23" s="2">
-        <v>3.4399999999999409</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>5.66700000000003</v>
+        <v>3.4</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>5.7</v>
       </c>
       <c r="AQ23" s="2">
-        <v>2.6299999999999955</v>
+        <v>2.6</v>
       </c>
       <c r="AR23" s="1">
-        <v>1.6190000000000282</v>
+        <v>1.6</v>
       </c>
       <c r="AS23" s="2">
-        <v>4.2509999999999764</v>
+        <v>4.3</v>
       </c>
       <c r="AT23" s="1">
-        <v>2.0230000000000246</v>
+        <v>2</v>
       </c>
       <c r="AU23" s="2">
-        <v>3.0359999999999445</v>
+        <v>3</v>
       </c>
       <c r="AV23" s="3">
-        <v>2.4279999999999973</v>
+        <v>2.4</v>
       </c>
       <c r="AW23" s="2">
-        <v>2.0250000000000909</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="1">
-        <v>7.4850000000000136</v>
+        <v>7.5</v>
       </c>
       <c r="AY23" s="2">
-        <v>7.6869999999998981</v>
+        <v>7.7</v>
       </c>
       <c r="AZ23" s="3">
-        <v>7.0810000000000173</v>
+        <v>7.1</v>
       </c>
       <c r="BA23" s="2">
-        <v>1.0110000000000809</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="1">
-        <v>6.06899999999996</v>
+        <v>6.1</v>
       </c>
       <c r="BC23" s="2">
-        <v>9.7110000000000127</v>
-      </c>
-      <c r="BD23" s="1">
-        <v>2.6290000000000191</v>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>2.6</v>
       </c>
       <c r="BE23" s="2">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="1">
-        <v>5.6639999999999873</v>
+        <v>5.7</v>
       </c>
       <c r="BG23" s="2">
-        <v>6.0690000000000737</v>
+        <v>6.1</v>
       </c>
       <c r="BH23" s="1">
-        <v>6.2709999999999582</v>
+        <v>6.3</v>
       </c>
       <c r="BI23" s="2">
-        <v>10.115000000000009</v>
+        <v>10.1</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.0109999999999673</v>
+        <v>1</v>
       </c>
       <c r="BK23" s="2">
-        <v>1.8210000000000264</v>
+        <v>1.8</v>
       </c>
       <c r="BL23" s="1">
-        <v>9.7100000000000364</v>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="BN23" s="3">
+        <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2.8310000000000173</v>
+        <v>2.8</v>
       </c>
       <c r="C24" s="2">
-        <v>1.2149999999999181</v>
+        <v>1.2</v>
       </c>
       <c r="D24" s="3">
-        <v>0.20199999999999818</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="2">
-        <v>2.4270000000000209</v>
+        <v>2.4</v>
       </c>
       <c r="F24" s="1">
-        <v>2.0230000000000246</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>1.6190000000000282</v>
+        <v>1.6</v>
       </c>
       <c r="H24" s="1">
-        <v>2.2249999999999091</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I24" s="2">
-        <v>3.4380000000001019</v>
+        <v>3.4</v>
       </c>
       <c r="J24" s="1">
-        <v>5.6649999999999636</v>
+        <v>5.7</v>
       </c>
       <c r="K24" s="2">
-        <v>7.2820000000000391</v>
+        <v>7.3</v>
       </c>
       <c r="L24" s="1">
-        <v>4.0469999999999118</v>
+        <v>4</v>
       </c>
       <c r="M24" s="2">
-        <v>6.2710000000000719</v>
+        <v>6.3</v>
       </c>
       <c r="N24" s="1">
-        <v>7.4839999999999236</v>
+        <v>7.5</v>
       </c>
       <c r="O24" s="2">
-        <v>5.4619999999999891</v>
+        <v>5.5</v>
       </c>
       <c r="P24" s="1">
-        <v>5.0580000000001064</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q24" s="2">
-        <v>4.2479999999999336</v>
+        <v>4.2</v>
       </c>
       <c r="R24" s="1">
-        <v>1.6180000000000518</v>
+        <v>1.6</v>
       </c>
       <c r="S24" s="2">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
-        <v>3.4389999999999645</v>
+        <v>3.4</v>
       </c>
       <c r="U24" s="2">
-        <v>2.0230000000000246</v>
+        <v>2</v>
       </c>
       <c r="V24" s="1">
-        <v>4.4500000000000455</v>
+        <v>4.5</v>
       </c>
       <c r="W24" s="2">
-        <v>2.6309999999999718</v>
+        <v>2.6</v>
       </c>
       <c r="X24" s="1">
-        <v>3.23599999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Y24" s="2">
-        <v>5.8670000000000755</v>
+        <v>5.9</v>
       </c>
       <c r="Z24" s="1">
-        <v>3.4389999999999645</v>
+        <v>3.4</v>
       </c>
       <c r="AA24" s="2">
-        <v>5.8659999999999854</v>
+        <v>5.9</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.20299999999997453</v>
+        <v>0.2</v>
       </c>
       <c r="AC24" s="2">
-        <v>1.6180000000000518</v>
+        <v>1.6</v>
       </c>
       <c r="AD24" s="1">
-        <v>2.4270000000000209</v>
+        <v>2.4</v>
       </c>
       <c r="AE24" s="2">
-        <v>7.6899999999999409</v>
+        <v>7.7</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.2860000000000582</v>
+        <v>7.3</v>
       </c>
       <c r="AG24" s="2">
-        <v>3.4409999999999172</v>
+        <v>3.4</v>
       </c>
       <c r="AH24" s="1">
-        <v>3.4390000000000782</v>
+        <v>3.4</v>
       </c>
       <c r="AI24" s="2">
-        <v>7.0839999999999463</v>
+        <v>7.1</v>
       </c>
       <c r="AJ24" s="1">
-        <v>2.2259999999999991</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AK24" s="2">
-        <v>10.317000000000007</v>
+        <v>10.3</v>
       </c>
       <c r="AL24" s="1">
-        <v>7.8899999999999864</v>
+        <v>7.9</v>
       </c>
       <c r="AM24" s="2">
-        <v>1.2140000000000555</v>
+        <v>1.2</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.40399999999999636</v>
+        <v>0.4</v>
       </c>
       <c r="AO24" s="2">
-        <v>1.8209999999999127</v>
+        <v>1.8</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.0690000000000737</v>
+        <v>6.1</v>
       </c>
       <c r="AQ24" s="2">
-        <v>7.6870000000000118</v>
+        <v>7.7</v>
       </c>
       <c r="AR24" s="1">
-        <v>7.0799999999999272</v>
+        <v>7.1</v>
       </c>
       <c r="AS24" s="2">
-        <v>8.0919999999999845</v>
+        <v>8.1</v>
       </c>
       <c r="AT24" s="3">
-        <v>1.0110000000000809</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2">
-        <v>1.8210000000000264</v>
+        <v>1.8</v>
       </c>
       <c r="AV24" s="1">
-        <v>13.149000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="AW24" s="2">
-        <v>2.0229999999999109</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>2.4279999999999973</v>
+        <v>2</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>2.4</v>
       </c>
       <c r="AY24" s="2">
-        <v>2.8319999999999936</v>
+        <v>2.8</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.6299999999999955</v>
+        <v>2.6</v>
       </c>
       <c r="BA24" s="2">
-        <v>3.4390000000000782</v>
+        <v>3.4</v>
       </c>
       <c r="BB24" s="1">
-        <v>4.0459999999999354</v>
+        <v>4</v>
       </c>
       <c r="BC24" s="2">
-        <v>4.4500000000000455</v>
+        <v>4.5</v>
       </c>
       <c r="BD24" s="1">
-        <v>1.2139999999999418</v>
+        <v>1.2</v>
       </c>
       <c r="BE24" s="2">
-        <v>1.82000000000005</v>
-      </c>
-      <c r="BF24" s="1">
-        <v>2.2259999999999991</v>
+        <v>1.8</v>
+      </c>
+      <c r="BF24" s="3">
+        <v>2.2000000000000002</v>
       </c>
       <c r="BG24" s="2">
-        <v>5.4619999999999891</v>
+        <v>5.5</v>
       </c>
       <c r="BH24" s="1">
-        <v>4.6539999999999964</v>
+        <v>4.7</v>
       </c>
       <c r="BI24" s="2">
-        <v>4.0470000000000255</v>
+        <v>4</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.2259999999999991</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>3.4389999999999645</v>
+        <v>3.4</v>
       </c>
       <c r="C25" s="2">
-        <v>5.0570000000000164</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>3.8429999999999609</v>
+        <v>3.8</v>
       </c>
       <c r="E25" s="2">
-        <v>1.8210000000000264</v>
+        <v>1.8</v>
       </c>
       <c r="F25" s="1">
-        <v>11.127000000000066</v>
+        <v>11.1</v>
       </c>
       <c r="G25" s="2">
-        <v>2.6289999999999054</v>
+        <v>2.6</v>
       </c>
       <c r="H25" s="1">
-        <v>8.4970000000000709</v>
+        <v>8.5</v>
       </c>
       <c r="I25" s="2">
-        <v>4.2479999999999336</v>
+        <v>4.2</v>
       </c>
       <c r="J25" s="1">
-        <v>1.2140000000000555</v>
+        <v>1.2</v>
       </c>
       <c r="K25" s="2">
-        <v>1.2129999999999654</v>
+        <v>1.2</v>
       </c>
       <c r="L25" s="1">
-        <v>3.0339999999999918</v>
+        <v>3</v>
       </c>
       <c r="M25" s="2">
-        <v>1.6190000000000282</v>
+        <v>1.6</v>
       </c>
       <c r="N25" s="3">
-        <v>1.2139999999999418</v>
+        <v>1.2</v>
       </c>
       <c r="O25" s="2">
-        <v>7.2820000000001528</v>
+        <v>7.3</v>
       </c>
       <c r="P25" s="1">
-        <v>4.2489999999997963</v>
+        <v>4.2</v>
       </c>
       <c r="Q25" s="2">
-        <v>2.6290000000001328</v>
+        <v>2.6</v>
       </c>
       <c r="R25" s="1">
-        <v>3.4390000000000782</v>
+        <v>3.4</v>
       </c>
       <c r="S25" s="2">
-        <v>5.6649999999999636</v>
+        <v>5.7</v>
       </c>
       <c r="T25" s="1">
-        <v>1.6179999999999382</v>
+        <v>1.6</v>
       </c>
       <c r="U25" s="2">
-        <v>5.6630000000000109</v>
+        <v>5.7</v>
       </c>
       <c r="V25" s="1">
-        <v>3.4400000000000546</v>
+        <v>3.4</v>
       </c>
       <c r="W25" s="2">
-        <v>10.521999999999935</v>
+        <v>10.5</v>
       </c>
       <c r="X25" s="1">
-        <v>6.6779999999998836</v>
+        <v>6.7</v>
       </c>
       <c r="Y25" s="2">
-        <v>7.4860000000001037</v>
+        <v>7.5</v>
       </c>
       <c r="Z25" s="1">
-        <v>1.2129999999999654</v>
+        <v>1.2</v>
       </c>
       <c r="AA25" s="2">
-        <v>1.0119999999999436</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="3">
-        <v>0.20300000000020191</v>
+        <v>0.2</v>
       </c>
       <c r="AC25" s="2">
-        <v>2.8309999999999036</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" s="1">
-        <v>6.2709999999999582</v>
+        <v>6.3</v>
       </c>
       <c r="AE25" s="2">
-        <v>3.23700000000008</v>
+        <v>3.2</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.65300000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AG25" s="2">
-        <v>7.8889999999998963</v>
+        <v>7.9</v>
       </c>
       <c r="AH25" s="1">
-        <v>14.36200000000008</v>
+        <v>14.4</v>
       </c>
       <c r="AI25" s="2">
-        <v>3.0349999999998545</v>
+        <v>3</v>
       </c>
       <c r="AJ25" s="1">
-        <v>6.8780000000001564</v>
+        <v>6.9</v>
       </c>
       <c r="AK25" s="2">
-        <v>8.293999999999869</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AL25" s="1">
-        <v>1.8210000000001401</v>
+        <v>1.8</v>
       </c>
       <c r="AM25" s="2">
-        <v>5.2590000000000146</v>
+        <v>5.3</v>
       </c>
       <c r="AN25" s="1">
-        <v>8.9009999999998399</v>
+        <v>8.9</v>
       </c>
       <c r="AO25" s="2">
-        <v>2.8320000000001073</v>
+        <v>2.8</v>
       </c>
       <c r="AP25" s="3">
-        <v>1.41599999999994</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25" s="2">
-        <v>1.0119999999999436</v>
-      </c>
-      <c r="AR25" s="1">
-        <v>1.2130000000001928</v>
+        <v>1</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>1.2</v>
       </c>
       <c r="AS25" s="2">
-        <v>3.6419999999998254</v>
+        <v>3.6</v>
       </c>
       <c r="AT25" s="1">
-        <v>4.65300000000002</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.9499999999999886</v>
+        <v>1.9</v>
       </c>
       <c r="C26" s="2">
-        <v>2.3829999999999814</v>
+        <v>2.4</v>
       </c>
       <c r="D26" s="1">
-        <v>2.6000000000000227</v>
+        <v>2.6</v>
       </c>
       <c r="E26" s="2">
-        <v>2.382000000000005</v>
+        <v>2.4</v>
       </c>
       <c r="F26" s="3">
-        <v>9.964999999999975</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2">
-        <v>2.6000000000000227</v>
+        <v>2.6</v>
       </c>
       <c r="H26" s="1">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="I26" s="2">
-        <v>4.7660000000000196</v>
+        <v>4.8</v>
       </c>
       <c r="J26" s="1">
-        <v>1.5169999999999959</v>
+        <v>1.5</v>
       </c>
       <c r="K26" s="2">
-        <v>1.5160000000000196</v>
+        <v>1.5</v>
       </c>
       <c r="L26" s="1">
-        <v>4.9830000000000041</v>
+        <v>5</v>
       </c>
       <c r="M26" s="2">
-        <v>7.1490000000000009</v>
+        <v>7.1</v>
       </c>
       <c r="N26" s="3">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
       </c>
       <c r="O26" s="2">
-        <v>7.1480000000000246</v>
+        <v>7.1</v>
       </c>
       <c r="P26" s="1">
-        <v>2.8160000000000309</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" s="2">
-        <v>2.3839999999999009</v>
+        <v>2.4</v>
       </c>
       <c r="R26" s="1">
-        <v>1.3000000000000682</v>
+        <v>1.3</v>
       </c>
       <c r="S26" s="2">
-        <v>17.113999999999919</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>3.4660000000000082</v>
+        <v>3.5</v>
       </c>
       <c r="U26" s="2">
-        <v>1.3010000000000446</v>
+        <v>1.3</v>
       </c>
       <c r="V26" s="3">
-        <v>0.64900000000000091</v>
+        <v>0.6</v>
       </c>
       <c r="W26" s="2">
-        <v>11.048000000000002</v>
+        <v>11</v>
       </c>
       <c r="X26" s="1">
-        <v>5.1989999999999554</v>
+        <v>5.2</v>
       </c>
       <c r="Y26" s="2">
-        <v>1.5160000000000764</v>
+        <v>1.5</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.64999999999997726</v>
+        <v>0.6</v>
       </c>
       <c r="AA26" s="2">
-        <v>6.2830000000000155</v>
+        <v>6.3</v>
       </c>
       <c r="AB26" s="1">
-        <v>3.8990000000000009</v>
+        <v>3.9</v>
       </c>
       <c r="AC26" s="2">
-        <v>2.3829999999999245</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>5.1990000000000691</v>
+        <v>2.4</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>5.2</v>
       </c>
       <c r="AE26" s="2">
-        <v>19.92999999999995</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.4660000000000082</v>
+        <v>3.5</v>
       </c>
       <c r="AG26" s="2">
-        <v>8.4490000000000691</v>
+        <v>8.4</v>
       </c>
       <c r="AH26" s="1">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="AI26" s="2">
-        <v>13.646999999999935</v>
+        <v>13.6</v>
       </c>
       <c r="AJ26" s="1">
-        <v>6.0670000000000073</v>
+        <v>6.1</v>
       </c>
       <c r="AK26" s="2">
-        <v>2.1650000000000773</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>3.24899999999991</v>
+        <v>3.2</v>
       </c>
       <c r="AM26" s="2">
-        <v>1.3000000000000682</v>
+        <v>1.3</v>
       </c>
       <c r="AN26" s="1">
-        <v>3.0330000000000155</v>
+        <v>3</v>
       </c>
       <c r="AO26" s="2">
-        <v>1.9499999999999318</v>
+        <v>1.9</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.7320000000000846</v>
+        <v>1.7</v>
       </c>
       <c r="AQ26" s="2">
-        <v>3.6829999999999927</v>
+        <v>3.7</v>
       </c>
       <c r="AR26" s="1">
-        <v>3.24899999999991</v>
+        <v>3.2</v>
       </c>
       <c r="AS26" s="2">
-        <v>8.6650000000000773</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AT26" s="1">
-        <v>0.86599999999998545</v>
+        <v>0.9</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>3.4669999999999845</v>
+        <v>3.5</v>
       </c>
       <c r="C27" s="2">
-        <v>1.9489999999999554</v>
+        <v>1.9</v>
       </c>
       <c r="D27" s="1">
-        <v>3.6829999999999927</v>
+        <v>3.7</v>
       </c>
       <c r="E27" s="2">
-        <v>1.0819999999999936</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>0.86700000000007549</v>
+        <v>0.9</v>
       </c>
       <c r="G27" s="2">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="H27" s="1">
-        <v>10.182000000000016</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I27" s="2">
-        <v>6.4980000000000473</v>
+        <v>6.5</v>
       </c>
       <c r="J27" s="1">
-        <v>2.5989999999999327</v>
+        <v>2.6</v>
       </c>
       <c r="K27" s="2">
-        <v>4.3330000000000837</v>
+        <v>4.3</v>
       </c>
       <c r="L27" s="3">
-        <v>0.21699999999998454</v>
+        <v>0.2</v>
       </c>
       <c r="M27" s="2">
-        <v>3.8990000000000009</v>
+        <v>3.9</v>
       </c>
       <c r="N27" s="1">
-        <v>4.5489999999999782</v>
+        <v>4.5</v>
       </c>
       <c r="O27" s="2">
-        <v>9.5320000000000391</v>
+        <v>9.5</v>
       </c>
       <c r="P27" s="1">
-        <v>9.74899999999991</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q27" s="2">
-        <v>7.3640000000000327</v>
+        <v>7.4</v>
       </c>
       <c r="R27" s="1">
-        <v>3.8999999999999773</v>
+        <v>3.9</v>
       </c>
       <c r="S27" s="2">
-        <v>4.9820000000000846</v>
+        <v>5</v>
       </c>
       <c r="T27" s="1">
-        <v>9.9660000000000082</v>
+        <v>10</v>
       </c>
       <c r="U27" s="2">
-        <v>9.9649999999999181</v>
+        <v>10</v>
       </c>
       <c r="V27" s="1">
-        <v>6.7150000000000318</v>
+        <v>6.7</v>
       </c>
       <c r="W27" s="2">
-        <v>16.248000000000047</v>
+        <v>16.2</v>
       </c>
       <c r="X27" s="3">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="Y27" s="2">
-        <v>7.5819999999999936</v>
+        <v>7.6</v>
       </c>
       <c r="Z27" s="1">
-        <v>4.9830000000000609</v>
+        <v>5</v>
       </c>
       <c r="AA27" s="2">
-        <v>3.8990000000000009</v>
+        <v>3.9</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.2159999999998945</v>
+        <v>0.2</v>
       </c>
       <c r="AC27" s="2">
-        <v>1.5170000000000528</v>
+        <v>1.5</v>
       </c>
       <c r="AD27" s="1">
-        <v>2.3830000000000382</v>
+        <v>2.4</v>
       </c>
       <c r="AE27" s="2">
-        <v>7.3650000000000091</v>
+        <v>7.4</v>
       </c>
       <c r="AF27" s="1">
-        <v>9.74899999999991</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AG27" s="2">
-        <v>4.7660000000000764</v>
+        <v>4.8</v>
       </c>
       <c r="AH27" s="1">
-        <v>4.1150000000000091</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI27" s="2">
-        <v>17.979999999999905</v>
+        <v>18</v>
       </c>
       <c r="AJ27" s="3">
-        <v>0.6510000000000673</v>
+        <v>0.7</v>
       </c>
       <c r="AK27" s="2">
-        <v>12.34699999999998</v>
+        <v>12.3</v>
       </c>
       <c r="AL27" s="3">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="AM27" s="2">
-        <v>1.3000000000000682</v>
+        <v>1.3</v>
       </c>
       <c r="AN27" s="1">
-        <v>6.9319999999999027</v>
+        <v>6.9</v>
       </c>
     </row>
-    <row r="28" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <v>1.08299999999997</v>
-      </c>
-      <c r="C28" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1.9490000000000691</v>
-      </c>
-      <c r="E28" s="5">
-        <v>20.579999999999927</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2.3830000000000382</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1.5159999999999627</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.64900000000000091</v>
-      </c>
-      <c r="I28" s="5">
-        <v>30.870999999999981</v>
-      </c>
-      <c r="J28" s="4">
-        <v>5.6330000000000382</v>
-      </c>
-      <c r="K28" s="5">
-        <v>1.2989999999999782</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0.21600000000012187</v>
-      </c>
-      <c r="M28" s="5">
-        <v>22.530999999999949</v>
-      </c>
-      <c r="N28" s="4">
-        <v>5.6330000000000382</v>
-      </c>
-      <c r="O28" s="5">
-        <v>2.3819999999998345</v>
-      </c>
-      <c r="P28" s="4">
-        <v>7.1490000000001146</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>21.011999999999944</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0.43399999999996908</v>
-      </c>
-      <c r="S28" s="5">
-        <v>13.430000000000064</v>
-      </c>
-      <c r="T28" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="U28" s="5">
-        <v>7.5820000000001073</v>
-      </c>
-      <c r="V28" s="4">
-        <v>3.4649999999999181</v>
-      </c>
-      <c r="W28" s="5">
-        <v>9.5319999999999254</v>
-      </c>
-      <c r="X28" s="6">
-        <v>5.8490000000001601</v>
-      </c>
-      <c r="Y28" s="5">
-        <v>14.513999999999896</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>1.2999999999999545</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>2.16599999999994</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>4.1160000000002128</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>3.4659999999998945</v>
-      </c>
-      <c r="AD28" s="4">
-        <v>2.5989999999999327</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>10.398000000000138</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>1.54099999999994</v>
-      </c>
-      <c r="AG28" s="5">
-        <v>1.1669999999999163</v>
-      </c>
-      <c r="AH28" s="6">
-        <v>0.21600000000012187</v>
-      </c>
-      <c r="AI28" s="5">
-        <v>6.2819999999999254</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>2.8160000000000309</v>
-      </c>
-      <c r="AK28" s="5">
-        <v>1.9500000000000455</v>
-      </c>
-      <c r="AL28" s="4">
-        <v>1.0839999999998327</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>18.195000000000164</v>
-      </c>
-      <c r="AN28" s="6">
-        <v>3.6820000000000164</v>
-      </c>
-      <c r="AO28" s="5">
-        <v>1.5169999999998254</v>
-      </c>
-      <c r="AP28" s="6">
-        <v>1.5160000000000764</v>
-      </c>
-      <c r="AQ28" s="5">
-        <v>4.9819999999999709</v>
-      </c>
-      <c r="AR28" s="4">
-        <v>5.4160000000001673</v>
+      <c r="B28" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="P28" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>21</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S28" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="U28" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="V28" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W28" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="X28" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>5.4</v>
       </c>
     </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="U29" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W29" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="BD29" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BH29" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>5</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BQ29" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BR29" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="BS29" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="BT29" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BU29" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="BY29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="CA29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="CB29" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
-        <v>1.7329999999999472</v>
-      </c>
-      <c r="C30" s="8">
-        <v>3.6820000000000164</v>
-      </c>
-      <c r="D30" s="7">
-        <v>3.8990000000000009</v>
-      </c>
-      <c r="E30" s="8">
-        <v>12.565000000000055</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4.7649999999999864</v>
-      </c>
-      <c r="G30" s="8">
-        <v>6.9320000000000164</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1.08299999999997</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5.41599999999994</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0.21600000000000819</v>
-      </c>
-      <c r="K30" s="8">
-        <v>6.9329999999999927</v>
-      </c>
-      <c r="L30" s="7">
-        <v>4.3319999999999936</v>
-      </c>
-      <c r="M30" s="8">
-        <v>3.2490000000000236</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0.86700000000007549</v>
-      </c>
-      <c r="O30" s="8">
-        <v>9.5319999999999254</v>
-      </c>
-      <c r="P30" s="7">
-        <v>2.3830000000000382</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>9.0979999999999563</v>
-      </c>
-      <c r="R30" s="9">
-        <v>0.43299999999999272</v>
-      </c>
-      <c r="S30" s="8">
-        <v>1.5170000000000528</v>
-      </c>
-      <c r="T30" s="7">
-        <v>1.5169999999999391</v>
-      </c>
-      <c r="U30" s="8">
-        <v>11.482000000000085</v>
-      </c>
-      <c r="V30" s="9">
-        <v>0.43299999999999272</v>
-      </c>
-      <c r="W30" s="8">
-        <v>1.0819999999999936</v>
-      </c>
-      <c r="X30" s="7">
-        <v>2.8170000000000073</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>9.74899999999991</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>2.5990000000000464</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>7.3650000000000091</v>
-      </c>
-      <c r="AB30" s="9">
-        <v>0.43299999999999272</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>3.0330000000000155</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>0.43399999999996908</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>2.3820000000000618</v>
-      </c>
-      <c r="AF30" s="7">
-        <v>4.1169999999999618</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>6.0660000000000309</v>
-      </c>
-      <c r="AH30" s="7">
-        <v>1.7329999999999472</v>
-      </c>
-      <c r="AI30" s="8">
-        <v>8.4490000000000691</v>
-      </c>
-      <c r="AJ30" s="9">
-        <v>1.0819999999999936</v>
-      </c>
-      <c r="AK30" s="8">
-        <v>1.5169999999999391</v>
-      </c>
-      <c r="AL30" s="7">
-        <v>2.3830000000000382</v>
-      </c>
-      <c r="AM30" s="8">
-        <v>1.9489999999999554</v>
-      </c>
-      <c r="AN30" s="9">
-        <v>1.5170000000000528</v>
-      </c>
-      <c r="AO30" s="8">
-        <v>9.3149999999999409</v>
-      </c>
-      <c r="AP30" s="7">
-        <v>3.6820000000000164</v>
-      </c>
-      <c r="AQ30" s="8">
-        <v>3.4669999999999845</v>
-      </c>
-      <c r="AR30" s="7">
-        <v>3.2490000000000236</v>
-      </c>
-      <c r="AS30" s="8">
-        <v>3.6820000000000164</v>
-      </c>
-      <c r="AT30" s="7">
-        <v>5.6330000000000382</v>
-      </c>
-      <c r="AU30" s="8">
-        <v>25.777999999999906</v>
-      </c>
-      <c r="AV30" s="7">
-        <v>2.1660000000000537</v>
+      <c r="B30" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L30" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O30" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U30" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="W30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X30" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>21</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="C31" s="2">
-        <v>8.4490000000000691</v>
+        <v>8.4</v>
       </c>
       <c r="D31" s="1">
-        <v>6.7149999999999181</v>
+        <v>6.7</v>
       </c>
       <c r="E31" s="2">
-        <v>6.0650000000000546</v>
+        <v>6.1</v>
       </c>
       <c r="F31" s="3">
-        <v>0.21699999999998454</v>
+        <v>0.2</v>
       </c>
       <c r="G31" s="2">
-        <v>1.5159999999999627</v>
+        <v>1.5</v>
       </c>
       <c r="H31" s="1">
-        <v>1.3000000000000682</v>
+        <v>1.3</v>
       </c>
       <c r="I31" s="2">
-        <v>15.380999999999972</v>
+        <v>15.4</v>
       </c>
       <c r="J31" s="3">
-        <v>0.43299999999999272</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="2">
-        <v>2.8160000000000309</v>
+        <v>2.8</v>
       </c>
       <c r="L31" s="1">
-        <v>1.7339999999999236</v>
+        <v>1.7</v>
       </c>
       <c r="M31" s="2">
-        <v>1.9490000000000691</v>
+        <v>1.9</v>
       </c>
       <c r="N31" s="1">
-        <v>2.16599999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O31" s="2">
-        <v>10.506999999999948</v>
+        <v>10.5</v>
       </c>
       <c r="P31" s="3">
-        <v>1.08400000000006</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q31" s="2">
-        <v>22.313000000000102</v>
+        <v>22.3</v>
       </c>
       <c r="R31" s="1">
-        <v>3.4659999999998945</v>
+        <v>3.5</v>
       </c>
       <c r="S31" s="2">
-        <v>7.5820000000001073</v>
+        <v>7.6</v>
       </c>
       <c r="T31" s="1">
-        <v>5.8489999999999327</v>
+        <v>5.8</v>
       </c>
       <c r="U31" s="2">
-        <v>4.3320000000001073</v>
+        <v>4.3</v>
       </c>
       <c r="V31" s="3">
-        <v>0.21699999999987085</v>
+        <v>0.2</v>
       </c>
       <c r="W31" s="2">
-        <v>3.0330000000001291</v>
+        <v>3</v>
       </c>
       <c r="X31" s="1">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="Y31" s="2">
-        <v>16.896999999999935</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>4.3309999999999036</v>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>4.3</v>
       </c>
       <c r="AA31" s="2">
-        <v>13.215000000000146</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>1.7329999999999472</v>
+        <v>13.2</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1.7</v>
       </c>
       <c r="AC31" s="2">
-        <v>1.7329999999999472</v>
+        <v>1.7</v>
       </c>
       <c r="AD31" s="1">
-        <v>2.8160000000000309</v>
+        <v>2.8</v>
       </c>
       <c r="AE31" s="2">
-        <v>4.5489999999999782</v>
+        <v>4.5</v>
       </c>
       <c r="AF31" s="3">
-        <v>5.2000000000000455</v>
+        <v>5.2</v>
       </c>
       <c r="AG31" s="2">
-        <v>1.2989999999999782</v>
+        <v>1.3</v>
       </c>
       <c r="AH31" s="1">
-        <v>2.3830000000000382</v>
+        <v>2.4</v>
       </c>
       <c r="AI31" s="2">
-        <v>9.5309999999999491</v>
+        <v>9.5</v>
       </c>
       <c r="AJ31" s="3">
-        <v>0.43399999999996908</v>
+        <v>0.4</v>
       </c>
       <c r="AK31" s="2">
-        <v>9.0980000000001837</v>
+        <v>9.1</v>
       </c>
       <c r="AL31" s="3">
-        <v>0.43399999999996908</v>
+        <v>0.4</v>
       </c>
       <c r="AM31" s="2">
-        <v>4.7649999999998727</v>
+        <v>4.8</v>
       </c>
       <c r="AN31" s="1">
-        <v>3.6829999999999927</v>
+        <v>3.7</v>
       </c>
       <c r="AO31" s="2">
-        <v>14.080000000000155</v>
+        <v>14.1</v>
       </c>
       <c r="AP31" s="1">
-        <v>4.1159999999999854</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AQ31" s="2">
-        <v>1.9739999999999327</v>
+        <v>2</v>
       </c>
       <c r="AR31" s="3">
-        <v>1.3830000000000382</v>
+        <v>1.4</v>
       </c>
       <c r="AS31" s="2">
-        <v>10.182000000000016</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AT31" s="3">
-        <v>5.8479999999999563</v>
+        <v>5.8</v>
       </c>
       <c r="AU31" s="2">
-        <v>1.2999999999999545</v>
+        <v>1.3</v>
       </c>
       <c r="AV31" s="1">
-        <v>1.0830000000000837</v>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:190" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I32" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P32" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T32" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="U32" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W32" s="2">
+        <v>21</v>
+      </c>
+      <c r="X32" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AZ32" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="BE32" s="2">
+        <v>11</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="BI32" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="BK32" s="2">
+        <v>13</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM32" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="BO32" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="BP32" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="BQ32" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="BS32" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BU32" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="BW32" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BX32" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY32" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>16</v>
+      </c>
+      <c r="CA32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CB32" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="CC32" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="CD32" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="CE32" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CG32" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="CH32" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="CI32" s="2">
+        <v>13</v>
+      </c>
+      <c r="CJ32" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="CK32" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="CL32" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="CM32" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="CN32" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="CO32" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="CP32" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="CQ32" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="CR32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="CS32" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT32" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="CU32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="CV32" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="CW32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CX32" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="CY32" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="CZ32" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DA32" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="DB32" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="DC32" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="DD32" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="DE32" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="DF32" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="DG32" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="DH32" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="DI32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="DJ32" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK32" s="2">
+        <v>20</v>
+      </c>
+      <c r="DL32" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="DM32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DN32" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="DO32" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="DP32" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="DQ32" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="DR32" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="DS32" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="DT32" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="DU32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="DV32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="DW32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="DX32" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="DY32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="DZ32" s="1">
+        <v>5</v>
+      </c>
+      <c r="EA32" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="EB32" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="EC32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="ED32" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="EE32" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="EF32" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="EG32" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="EH32" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="EI32" s="2">
+        <v>5</v>
+      </c>
+      <c r="EJ32" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="EK32" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="EL32" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="EM32" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="EN32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="EO32" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="EP32" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="EQ32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="ER32" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="ES32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="ET32" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="EU32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EV32" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="EW32" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="EX32" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EY32" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="EZ32" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="FA32" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="FB32" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="FC32" s="2">
+        <v>8</v>
+      </c>
+      <c r="FD32" s="3">
+        <v>5</v>
+      </c>
+      <c r="FE32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FF32" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="FG32" s="2">
+        <v>2</v>
+      </c>
+      <c r="FH32" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="FI32" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="FJ32" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="FK32" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="FL32" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="FM32" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="FN32" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="FO32" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="FP32" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="FQ32" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="FR32" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="FS32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FT32" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="FU32" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="FV32" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FW32" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="FX32" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="FY32" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="FZ32" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="GA32" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="GB32" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="GC32" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="GD32" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="GE32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="GF32" s="3">
+        <v>5</v>
+      </c>
+      <c r="GG32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="GH32" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B46E2-9762-45FA-91BD-8135CF19D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12BAB99-B088-4419-86EA-2619F12131E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6237,224 +6237,224 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>1.5</v>
+      <c r="B29" s="1">
+        <v>3.2</v>
       </c>
       <c r="C29" s="2">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="D29" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="J29" s="1">
         <v>0.4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="K29" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Q29" s="2">
         <v>2.6</v>
       </c>
-      <c r="F29" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="R29" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I29" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="S29" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="U29" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="V29" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W29" s="2">
+        <v>3</v>
+      </c>
+      <c r="X29" s="1">
         <v>1.3</v>
       </c>
-      <c r="L29" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O29" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R29" s="1">
-        <v>3</v>
-      </c>
-      <c r="S29" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="T29" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="U29" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="V29" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W29" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X29" s="1">
-        <v>1.7</v>
-      </c>
       <c r="Y29" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>2.6</v>
+        <v>7.6</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA29" s="2">
         <v>3</v>
       </c>
-      <c r="AB29" s="1">
-        <v>1.3</v>
+      <c r="AB29" s="3">
+        <v>0.6</v>
       </c>
       <c r="AC29" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>3.2</v>
       </c>
       <c r="AE29" s="2">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF29" s="3">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="AG29" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="AH29" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AS29" s="2">
         <v>3.2</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AT29" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AU29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AV29" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BD29" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>5</v>
+      </c>
+      <c r="BH29" s="1">
         <v>2.4</v>
       </c>
-      <c r="AK29" s="2">
+      <c r="BI29" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="BL29" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL29" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="AN29" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>5</v>
-      </c>
-      <c r="AR29" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AT29" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="AV29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AW29" s="2">
+      <c r="BM29" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BN29" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="BP29" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BQ29" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS29" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="BU29" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV29" s="1">
         <v>3.2</v>
-      </c>
-      <c r="AX29" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AY29" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AZ29" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA29" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="BB29" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="BC29" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="BD29" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BE29" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BF29" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="BG29" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BH29" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BI29" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="BJ29" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BK29" s="2">
-        <v>5</v>
-      </c>
-      <c r="BL29" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="BM29" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="BN29" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="BO29" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="BP29" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BQ29" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="BR29" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BS29" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="BT29" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="BU29" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="BV29" s="1">
-        <v>3</v>
       </c>
       <c r="BW29" s="2">
         <v>1.3</v>
